--- a/database/seeders/spreadsheet/0.spreadsheet.xlsx
+++ b/database/seeders/spreadsheet/0.spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merlin\Desktop\projects\acitivity-analyzer\database\seeders\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C847F5-B6AB-4A63-8044-0491C57BCBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C066193-CE25-4A28-B587-AD76FCE80919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Codewars</t>
   </si>
   <si>
-    <t>Activity Analyzer</t>
-  </si>
-  <si>
     <t>Sonstiges</t>
   </si>
 </sst>
@@ -231,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -240,7 +237,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -459,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1346"/>
+  <dimension ref="A1:G1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A1188" workbookViewId="0">
+      <selection activeCell="B1208" sqref="B1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -516,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,7 +602,7 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -636,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3108,7 +3110,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>6</v>
@@ -3267,7 +3269,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>6</v>
@@ -6180,5875 +6182,6129 @@
       <c r="C610" s="5"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="4"/>
-      <c r="C611" s="5"/>
+      <c r="A611" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C611" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="1">
-        <v>43992</v>
-      </c>
+      <c r="A612" s="4"/>
       <c r="B612" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C612" s="3">
-        <v>0.3125</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C613" s="3">
-        <v>0.31944444444444442</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C614" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C615" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C616" s="3">
-        <v>0.52777777777777779</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C617" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C618" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C619" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C620" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C621" s="3">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C622" s="3">
-        <v>0.71875</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C623" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C624" s="3">
-        <v>0.75694444444444442</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C625" s="3">
-        <v>0.76388888888888884</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C626" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C627" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C628" s="3">
-        <v>0.8125</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C629" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C630" s="3">
-        <v>0.82638888888888884</v>
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C631" s="3">
-        <v>0.84027777777777779</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C632" s="3">
-        <v>0.90625</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C633" s="3">
-        <v>0.92013888888888884</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C634" s="3">
-        <v>0.92708333333333337</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
-      <c r="B635" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C635" s="3">
-        <v>0.93402777777777779</v>
-      </c>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="4"/>
-      <c r="C636" s="2"/>
+      <c r="A636" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A637" s="1">
-        <v>43993</v>
-      </c>
+      <c r="A637" s="4"/>
       <c r="B637" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C637" s="3">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C638" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C639" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C640" s="3">
-        <v>0.3611111111111111</v>
+        <v>11</v>
+      </c>
+      <c r="C640" s="6">
+        <v>0.375</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C641" s="6">
-        <v>0.375</v>
+        <v>38</v>
+      </c>
+      <c r="C641" s="3">
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C642" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C643" s="3">
-        <v>0.53125</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C644" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C645" s="3">
-        <v>0.5625</v>
+        <v>11</v>
+      </c>
+      <c r="C645" s="6">
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C646" s="6">
-        <v>0.57638888888888884</v>
+        <v>38</v>
+      </c>
+      <c r="C646" s="3">
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C647" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C648" s="3">
-        <v>0.61111111111111116</v>
+        <v>0.62847222222222221</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C649" s="3">
-        <v>0.62847222222222221</v>
+        <v>0.64236111111111116</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C650" s="3">
-        <v>0.64236111111111116</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C651" s="3">
-        <v>0.69444444444444442</v>
+        <v>31</v>
+      </c>
+      <c r="C651" s="6">
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C652" s="6">
-        <v>0.70138888888888884</v>
+        <v>38</v>
+      </c>
+      <c r="C652" s="3">
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C653" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C654" s="3">
-        <v>0.80208333333333337</v>
+        <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C655" s="3">
-        <v>0.81597222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C656" s="3">
-        <v>0.82986111111111116</v>
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C657" s="3">
-        <v>0.84027777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C658" s="3">
-        <v>0.86805555555555558</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C659" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C660" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C661" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.95138888888888884</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C662" s="3">
-        <v>0.95138888888888884</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
-      <c r="B663" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C663" s="3">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="C663" s="5"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A664" s="4"/>
-      <c r="C664" s="5"/>
+      <c r="A664" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C664" s="3">
+        <v>0.30208333333333331</v>
+      </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A665" s="1">
-        <v>43994</v>
-      </c>
+      <c r="A665" s="4"/>
       <c r="B665" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C665" s="3">
-        <v>0.30208333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C666" s="3">
-        <v>0.3125</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C667" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C668" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C669" s="3">
-        <v>0.3923611111111111</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C670" s="3">
-        <v>0.4513888888888889</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C671" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C672" s="3">
-        <v>0.47569444444444442</v>
+        <v>14</v>
+      </c>
+      <c r="C672" s="6">
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C673" s="6">
-        <v>0.49652777777777779</v>
+        <v>26</v>
+      </c>
+      <c r="C673" s="3">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C674" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C675" s="3">
-        <v>0.5625</v>
+        <v>26</v>
+      </c>
+      <c r="C675" s="6">
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C676" s="6">
-        <v>0.56944444444444442</v>
+        <v>11</v>
+      </c>
+      <c r="C676" s="3">
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C677" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C678" s="3">
-        <v>0.59027777777777779</v>
+        <v>9</v>
+      </c>
+      <c r="C678" s="6">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C679" s="6">
-        <v>0.64583333333333337</v>
+        <v>41</v>
+      </c>
+      <c r="C679" s="3">
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C680" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C681" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C682" s="3">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C683" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C684" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.86805555555555558</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C685" s="3">
-        <v>0.86805555555555558</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C686" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C687" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.91319444444444442</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C688" s="3">
-        <v>0.91319444444444442</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C689" s="3">
-        <v>0.95833333333333337</v>
+        <v>40</v>
+      </c>
+      <c r="C689" s="6">
+        <v>0.96875</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
-      <c r="B690" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C690" s="6">
-        <v>0.96875</v>
-      </c>
+      <c r="C690" s="5"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A691" s="4"/>
-      <c r="C691" s="5"/>
+      <c r="A691" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C691" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A692" s="1">
-        <v>43995</v>
-      </c>
+      <c r="A692" s="4"/>
       <c r="B692" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C692" s="3">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C693" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C694" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C695" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C696" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C697" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C698" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C699" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C700" s="3">
-        <v>0.95486111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
-      <c r="B701" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C701" s="3">
-        <v>0.96180555555555558</v>
-      </c>
+      <c r="C701" s="5"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A702" s="4"/>
-      <c r="C702" s="5"/>
+      <c r="A702" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C702" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A703" s="1">
-        <v>43996</v>
-      </c>
+      <c r="A703" s="4"/>
       <c r="B703" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C703" s="3">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C704" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C705" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C706" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C707" s="3">
-        <v>0.38541666666666669</v>
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C708" s="3">
-        <v>0.49652777777777779</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C709" s="3">
-        <v>0.51388888888888884</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C710" s="3">
-        <v>0.53125</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C711" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C712" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C713" s="3">
-        <v>0.59375</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C714" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C715" s="3">
-        <v>0.63541666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="C715" s="6">
+        <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C716" s="6">
-        <v>0.64930555555555558</v>
+        <v>38</v>
+      </c>
+      <c r="C716" s="3">
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C717" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C718" s="3">
-        <v>0.93055555555555558</v>
+        <v>11</v>
+      </c>
+      <c r="C718" s="6">
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C719" s="6">
-        <v>0.95833333333333337</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
-      <c r="B720" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C720" s="6">
-        <v>0.96180555555555558</v>
-      </c>
+      <c r="C720" s="5"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A721" s="4"/>
-      <c r="C721" s="5"/>
+      <c r="A721" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C721" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A722" s="1">
-        <v>43997</v>
-      </c>
+      <c r="A722" s="4"/>
       <c r="B722" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C722" s="3">
-        <v>0.3125</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C723" s="3">
-        <v>0.3263888888888889</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C724" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C725" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C726" s="3">
-        <v>0.375</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C727" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C728" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C729" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C730" s="3">
-        <v>0.69444444444444442</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C731" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.80902777777777779</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C732" s="3">
-        <v>0.80902777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C733" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C734" s="3">
-        <v>0.86111111111111116</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C735" s="3">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C736" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C737" s="3">
-        <v>0.90625</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C738" s="3">
-        <v>0.92708333333333337</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C739" s="3">
-        <v>0.9375</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C740" s="3">
-        <v>0.96875</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
-      <c r="B741" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C741" s="3">
-        <v>0.97569444444444442</v>
-      </c>
+      <c r="C741" s="5"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A742" s="4"/>
-      <c r="C742" s="5"/>
+      <c r="A742" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C742" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A743" s="1">
-        <v>43998</v>
-      </c>
+      <c r="A743" s="4"/>
       <c r="B743" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C743" s="3">
-        <v>0.3125</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C744" s="3">
-        <v>0.3263888888888889</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C745" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C746" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C747" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C748" s="3">
-        <v>0.47222222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C749" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C750" s="3">
-        <v>0.53472222222222221</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C751" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C752" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C753" s="3">
-        <v>0.60416666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="C753" s="6">
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C754" s="6">
-        <v>0.61111111111111116</v>
+        <v>38</v>
+      </c>
+      <c r="C754" s="3">
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C755" s="3">
-        <v>0.70138888888888884</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C756" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C757" s="3">
-        <v>0.83333333333333337</v>
+        <v>20</v>
+      </c>
+      <c r="C757" s="6">
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C758" s="6">
-        <v>0.84027777777777779</v>
+        <v>11</v>
+      </c>
+      <c r="C758" s="3">
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C759" s="3">
-        <v>0.86111111111111116</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C760" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C761" s="3">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C762" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
-      <c r="B763" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C763" s="3">
-        <v>0.96180555555555558</v>
-      </c>
+      <c r="C763" s="5"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A764" s="4"/>
-      <c r="C764" s="5"/>
+      <c r="A764" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C764" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A765" s="1">
-        <v>43999</v>
-      </c>
+      <c r="A765" s="4"/>
       <c r="B765" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C765" s="3">
-        <v>0.3125</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C766" s="3">
-        <v>0.3263888888888889</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C767" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C768" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C769" s="3">
-        <v>0.375</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C770" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C771" s="3">
-        <v>0.57291666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C772" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C773" s="3">
-        <v>0.59375</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C774" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C775" s="3">
-        <v>0.73611111111111116</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C776" s="3">
-        <v>0.78125</v>
+        <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C777" s="3">
-        <v>0.81597222222222221</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C778" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
-      <c r="B779" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C779" s="3">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="C779" s="5"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A780" s="4"/>
-      <c r="C780" s="5"/>
+      <c r="A780" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C780" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A781" s="1">
-        <v>44000</v>
-      </c>
+      <c r="A781" s="4"/>
       <c r="B781" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C781" s="3">
-        <v>0.3125</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C782" s="3">
-        <v>0.3263888888888889</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C783" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C784" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.43402777777777779</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C785" s="3">
-        <v>0.43402777777777779</v>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C786" s="3">
-        <v>0.44097222222222221</v>
+        <v>0.46180555555555558</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C787" s="3">
-        <v>0.46180555555555558</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C788" s="3">
-        <v>0.4826388888888889</v>
+        <v>29</v>
+      </c>
+      <c r="C788" s="6">
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C789" s="6">
-        <v>0.50694444444444442</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C790" s="6">
-        <v>0.53125</v>
+        <v>38</v>
+      </c>
+      <c r="C790" s="3">
+        <v>0.55902777777777779</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C791" s="3">
-        <v>0.55902777777777779</v>
+        <v>18</v>
+      </c>
+      <c r="C791" s="6">
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C792" s="6">
-        <v>0.61111111111111116</v>
+        <v>17</v>
+      </c>
+      <c r="C792" s="3">
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C793" s="3">
-        <v>0.63888888888888884</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C794" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.65277777777777779</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C795" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C796" s="3">
-        <v>0.66319444444444442</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C797" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C798" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C799" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.86458333333333337</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C800" s="3">
-        <v>0.86458333333333337</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C801" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C802" s="3">
-        <v>0.89236111111111116</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C803" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C804" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
-      <c r="B805" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C805" s="3">
-        <v>0.94444444444444442</v>
-      </c>
+      <c r="C805" s="5"/>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A806" s="4"/>
-      <c r="C806" s="5"/>
+      <c r="A806" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C806" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A807" s="1">
-        <v>44001</v>
-      </c>
+      <c r="A807" s="4"/>
       <c r="B807" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C807" s="3">
-        <v>0.3125</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C808" s="3">
-        <v>0.31944444444444442</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C809" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C810" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C811" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.43402777777777779</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C812" s="3">
-        <v>0.43402777777777779</v>
+        <v>0.4548611111111111</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C813" s="3">
-        <v>0.4548611111111111</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C814" s="3">
-        <v>0.46875</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C815" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C816" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C817" s="3">
-        <v>0.53125</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C818" s="3">
-        <v>0.54513888888888884</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C819" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C820" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C821" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C822" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
-      <c r="B823" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C823" s="3">
-        <v>0.93055555555555558</v>
-      </c>
+      <c r="C823" s="5"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A824" s="4"/>
-      <c r="C824" s="5"/>
+      <c r="A824" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C824" s="3">
+        <v>0.30208333333333331</v>
+      </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A825" s="1">
-        <v>44002</v>
-      </c>
+      <c r="A825" s="4"/>
       <c r="B825" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C825" s="3">
-        <v>0.30208333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C826" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C827" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C828" s="3">
-        <v>0.4375</v>
+        <v>0.46180555555555558</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C829" s="3">
-        <v>0.46180555555555558</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C830" s="3">
-        <v>0.5625</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C831" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C832" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.65972222222222221</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C833" s="3">
-        <v>0.65972222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C834" s="3">
-        <v>0.67013888888888884</v>
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C835" s="3">
-        <v>0.70138888888888884</v>
+        <v>0.71527777777777779</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C836" s="3">
-        <v>0.71527777777777779</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C837" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C838" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C839" s="3">
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C840" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C841" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C842" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
-      <c r="B843" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C843" s="3">
-        <v>0.92361111111111116</v>
-      </c>
+      <c r="C843" s="5"/>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A844" s="4"/>
-      <c r="C844" s="5"/>
+      <c r="A844" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C844" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A845" s="1">
-        <v>44003</v>
-      </c>
+      <c r="A845" s="4"/>
       <c r="B845" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C845" s="3">
-        <v>0.3125</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C846" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C847" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C848" s="3">
-        <v>0.37152777777777779</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C849" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C850" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C851" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C852" s="3">
-        <v>0.50347222222222221</v>
+        <v>18</v>
+      </c>
+      <c r="C852" s="6">
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C853" s="6">
-        <v>0.69791666666666663</v>
+        <v>38</v>
+      </c>
+      <c r="C853" s="3">
+        <v>0.71180555555555558</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C854" s="3">
-        <v>0.71180555555555558</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C855" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C856" s="3">
-        <v>0.73611111111111116</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C857" s="3">
-        <v>0.8125</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C858" s="3">
-        <v>0.82291666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="C858" s="6">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C859" s="6">
-        <v>0.83333333333333337</v>
+        <v>42</v>
+      </c>
+      <c r="C859" s="3">
+        <v>0.83680555555555558</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C860" s="3">
-        <v>0.83680555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C861" s="3">
-        <v>0.87847222222222221</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C862" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.91319444444444442</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
-      <c r="B863" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C863" s="3">
-        <v>0.91319444444444442</v>
-      </c>
+      <c r="C863" s="5"/>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A864" s="4"/>
-      <c r="C864" s="5"/>
+      <c r="A864" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C864" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A865" s="1">
-        <v>44004</v>
-      </c>
+      <c r="A865" s="4"/>
       <c r="B865" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C865" s="3">
-        <v>0.3125</v>
+        <v>0.32291666667151731</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C866" s="3">
-        <v>0.32291666667151731</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C867" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C868" s="3">
-        <v>0.34375</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C869" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C870" s="3">
-        <v>0.375</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C871" s="3">
-        <v>0.4513888888888889</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C872" s="3">
-        <v>0.52777777777777779</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C873" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C874" s="3">
-        <v>0.54513888888888884</v>
+        <v>36</v>
+      </c>
+      <c r="C874" s="6">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C875" s="6">
-        <v>0.5625</v>
+        <v>29</v>
+      </c>
+      <c r="C875" s="3">
+        <v>0.58680555555555558</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C876" s="3">
-        <v>0.58680555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C877" s="3">
-        <v>0.59722222222222221</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C878" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C879" s="3">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C880" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C881" s="3">
-        <v>0.6875</v>
+        <v>44</v>
+      </c>
+      <c r="C881" s="6">
+        <v>0.69097222222222221</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C882" s="6">
-        <v>0.69097222222222221</v>
+        <v>38</v>
+      </c>
+      <c r="C882" s="3">
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C883" s="3">
-        <v>0.73611111111111116</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C884" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C885" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C886" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.88194444444444442</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C887" s="3">
-        <v>0.88194444444444442</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C888" s="3">
-        <v>0.89583333333333337</v>
+        <v>20</v>
+      </c>
+      <c r="C888" s="6">
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C889" s="6">
-        <v>0.90277777777777779</v>
+        <v>38</v>
+      </c>
+      <c r="C889" s="3">
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C890" s="3">
-        <v>0.94444444444444442</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
-      <c r="B891" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C891" s="3">
-        <v>0.96527777777777779</v>
-      </c>
+      <c r="C891" s="5"/>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A892" s="4"/>
-      <c r="C892" s="5"/>
+      <c r="A892" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C892" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A893" s="1">
-        <v>44005</v>
-      </c>
+      <c r="A893" s="4"/>
       <c r="B893" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C893" s="3">
-        <v>0.3125</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C894" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C895" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C896" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C897" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C898" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C899" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C900" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C901" s="3">
-        <v>0.46875</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C902" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C903" s="3">
-        <v>0.49652777777777779</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C904" s="3">
-        <v>0.51388888888888884</v>
+        <v>14</v>
+      </c>
+      <c r="C904" s="6">
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C905" s="6">
-        <v>0.53472222222222221</v>
+        <v>44</v>
+      </c>
+      <c r="C905" s="3">
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C906" s="3">
-        <v>0.56597222222222221</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C907" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C908" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C909" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C910" s="3">
-        <v>0.77083333333333337</v>
+        <v>17</v>
+      </c>
+      <c r="C910" s="6">
+        <v>0.78125</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C911" s="6">
-        <v>0.78125</v>
+        <v>38</v>
+      </c>
+      <c r="C911" s="3">
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C912" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C913" s="3">
-        <v>0.8125</v>
+        <v>0.86805555555555558</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C914" s="3">
-        <v>0.86805555555555558</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C915" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C916" s="3">
-        <v>0.89236111111111116</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C917" s="3">
-        <v>0.94791666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="C917" s="6">
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
-      <c r="B918" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C918" s="6">
-        <v>0.97222222222222221</v>
-      </c>
+      <c r="C918" s="5"/>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A919" s="4"/>
-      <c r="C919" s="5"/>
+      <c r="A919" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C919" s="3">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A920" s="1">
-        <v>44006</v>
-      </c>
+      <c r="A920" s="4"/>
       <c r="B920" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C920" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C921" s="3">
-        <v>0.3298611111111111</v>
+        <v>24</v>
+      </c>
+      <c r="C921" s="6">
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C922" s="6">
-        <v>0.34722222222222221</v>
+        <v>17</v>
+      </c>
+      <c r="C922" s="3">
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C923" s="3">
-        <v>0.3576388888888889</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C924" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C925" s="3">
-        <v>0.4375</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C926" s="3">
-        <v>0.47222222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C927" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C928" s="3">
-        <v>0.5</v>
+        <v>0.67361111111111116</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C929" s="3">
-        <v>0.67361111111111116</v>
+        <v>0.70486111111111116</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C930" s="3">
-        <v>0.70486111111111116</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C931" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
-      <c r="B932" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C932" s="3">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="C932" s="5"/>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A933" s="4"/>
-      <c r="C933" s="5"/>
+      <c r="A933" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C933" s="3">
+        <v>0.31944444444444442</v>
+      </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A934" s="1">
-        <v>44007</v>
-      </c>
+      <c r="A934" s="4"/>
       <c r="B934" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C934" s="3">
-        <v>0.31944444444444442</v>
+        <v>0.33333333332848269</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C935" s="3">
-        <v>0.33333333332848269</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C936" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C937" s="3">
-        <v>0.3923611111111111</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C938" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C939" s="3">
-        <v>0.4375</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C940" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C941" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C942" s="3">
-        <v>0.54513888888888884</v>
+        <v>0.61458333333333337</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C943" s="3">
-        <v>0.61458333333333337</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C944" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C945" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C946" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C947" s="3">
-        <v>0.74652777777777779</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C948" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C949" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.88194444444444442</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C950" s="3">
-        <v>0.88194444444444442</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C951" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C952" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C953" s="3">
-        <v>0.94444444444444442</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
-      <c r="B954" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C954" s="3">
-        <v>0.96180555555555558</v>
-      </c>
+      <c r="C954" s="5"/>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A955" s="4"/>
-      <c r="C955" s="5"/>
+      <c r="A955" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C955" s="3">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A956" s="1">
-        <v>44008</v>
-      </c>
+      <c r="A956" s="4"/>
       <c r="B956" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C956" s="3">
-        <v>0.3125</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C957" s="3">
-        <v>0.3263888888888889</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C958" s="3">
-        <v>0.34375</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C959" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C960" s="3">
-        <v>0.4375</v>
+        <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C961" s="3">
-        <v>0.46527777777777779</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C962" s="3">
-        <v>0.50347222222222221</v>
+        <v>0.51736111111111116</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C963" s="3">
-        <v>0.51736111111111116</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C964" s="3">
-        <v>0.71875</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C965" s="3">
-        <v>0.76041666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C966" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C967" s="3">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C968" s="3">
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C969" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C970" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C971" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C972" s="3">
-        <v>0.9375</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C973" s="3">
-        <v>0.97569444444444442</v>
+        <v>0.98263888888888884</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
-      <c r="B974" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C974" s="3">
-        <v>0.98263888888888884</v>
-      </c>
+      <c r="C974" s="5"/>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A975" s="4"/>
-      <c r="C975" s="5"/>
+      <c r="A975" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C975" s="3">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A976" s="1">
-        <v>43989</v>
-      </c>
+      <c r="A976" s="4"/>
       <c r="B976" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C976" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C977" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C978" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C979" s="3">
-        <v>0.40625</v>
+        <v>38</v>
+      </c>
+      <c r="C979" s="6">
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C980" s="6">
-        <v>0.50694444444444442</v>
+        <v>45</v>
+      </c>
+      <c r="C980" s="3">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C981" s="3">
-        <v>0.54166666666666663</v>
+        <v>14</v>
+      </c>
+      <c r="C981" s="6">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C982" s="6">
-        <v>0.5625</v>
+        <v>29</v>
+      </c>
+      <c r="C982" s="3">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C983" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C984" s="3">
-        <v>0.59722222222222221</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C985" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.64236111111111116</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C986" s="3">
-        <v>0.64236111111111116</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C987" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C988" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C989" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C990" s="3">
-        <v>0.8125</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C991" s="3">
-        <v>0.85069444444444442</v>
+        <v>0.85763888888888884</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C992" s="3">
-        <v>0.85763888888888884</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C993" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C994" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C995" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
-      <c r="B996" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C996" s="3">
-        <v>0.96875</v>
-      </c>
+      <c r="C996" s="5"/>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A997" s="4"/>
-      <c r="C997" s="5"/>
+      <c r="A997" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C997" s="3">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A998" s="1">
-        <v>44010</v>
-      </c>
+      <c r="A998" s="4"/>
       <c r="B998" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C998" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C999" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1000" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" s="4"/>
       <c r="B1001" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C1001" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" s="4"/>
       <c r="B1002" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1002" s="3">
-        <v>0.40625</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" s="4"/>
       <c r="B1003" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1003" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" s="4"/>
       <c r="B1004" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1004" s="3">
-        <v>0.59722222222222221</v>
+        <v>43</v>
+      </c>
+      <c r="C1004" s="6">
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" s="4"/>
       <c r="B1005" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1005" s="6">
-        <v>0.61805555555555558</v>
+        <v>14</v>
+      </c>
+      <c r="C1005" s="3">
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" s="4"/>
       <c r="B1006" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1006" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" s="4"/>
       <c r="B1007" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1007" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" s="4"/>
       <c r="B1008" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1008" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="4"/>
       <c r="B1009" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1009" s="3">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="4"/>
       <c r="B1010" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C1010" s="3">
-        <v>0.75</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="4"/>
       <c r="B1011" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C1011" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="4"/>
       <c r="B1012" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C1012" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="4"/>
-      <c r="B1013" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1013" s="3">
-        <v>0.96527777777777779</v>
-      </c>
+      <c r="C1013" s="5"/>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1014" s="4"/>
-      <c r="C1014" s="5"/>
+      <c r="A1014" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1014" s="3">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1015" s="1">
-        <v>44011</v>
-      </c>
+      <c r="A1015" s="4"/>
       <c r="B1015" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1015" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="4"/>
       <c r="B1016" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1016" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="4"/>
       <c r="B1017" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1017" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="4"/>
       <c r="B1018" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1018" s="3">
-        <v>0.375</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="4"/>
       <c r="B1019" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C1019" s="3">
-        <v>0.39930555555555558</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="4"/>
       <c r="B1020" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1020" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="4"/>
       <c r="B1021" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C1021" s="3">
-        <v>0.44097222222222221</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="4"/>
       <c r="B1022" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C1022" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="4"/>
       <c r="B1023" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C1023" s="3">
-        <v>0.48958333333333331</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="4"/>
       <c r="B1024" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1024" s="3">
-        <v>0.51388888888888884</v>
+        <v>15</v>
+      </c>
+      <c r="C1024" s="6">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="4"/>
       <c r="B1025" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1025" s="6">
-        <v>0.52083333333333337</v>
+        <v>38</v>
+      </c>
+      <c r="C1025" s="3">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="4"/>
       <c r="B1026" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C1026" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="4"/>
       <c r="B1027" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1027" s="3">
-        <v>0.61805555555555558</v>
+        <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="4"/>
       <c r="B1028" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1028" s="3">
-        <v>0.64930555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="4"/>
       <c r="B1029" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1029" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="4"/>
       <c r="B1030" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1030" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="4"/>
       <c r="B1031" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C1031" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="4"/>
       <c r="B1032" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1032" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="4"/>
       <c r="B1033" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1033" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="4"/>
       <c r="B1034" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1034" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.98611111111111116</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="4"/>
-      <c r="B1035" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1035" s="3">
-        <v>0.98611111111111116</v>
-      </c>
+      <c r="C1035" s="5"/>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1036" s="4"/>
-      <c r="C1036" s="5"/>
+      <c r="A1036" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1036" s="3">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1037" s="1">
-        <v>44012</v>
-      </c>
+      <c r="A1037" s="4"/>
       <c r="B1037" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1037" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="4"/>
       <c r="B1038" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1038" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="4"/>
       <c r="B1039" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C1039" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="4"/>
       <c r="B1040" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1040" s="3">
-        <v>0.375</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" s="4"/>
       <c r="B1041" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1041" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" s="4"/>
       <c r="B1042" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1042" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" s="4"/>
       <c r="B1043" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C1043" s="3">
-        <v>0.43055555555555558</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" s="4"/>
       <c r="B1044" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C1044" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" s="4"/>
       <c r="B1045" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1045" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" s="4"/>
       <c r="B1046" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C1046" s="3">
-        <v>0.61111111111111116</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" s="4"/>
       <c r="B1047" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C1047" s="3">
-        <v>0.63888888888888884</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" s="4"/>
       <c r="B1048" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1048" s="3">
-        <v>0.68055555555555558</v>
+        <v>11</v>
+      </c>
+      <c r="C1048" s="6">
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" s="4"/>
       <c r="B1049" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1049" s="6">
-        <v>0.72222222222222221</v>
+        <v>36</v>
+      </c>
+      <c r="C1049" s="3">
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" s="4"/>
       <c r="B1050" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C1050" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" s="4"/>
       <c r="B1051" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1051" s="3">
-        <v>0.8125</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" s="4"/>
       <c r="B1052" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1052" s="3">
-        <v>0.82986111111111116</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" s="4"/>
       <c r="B1053" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C1053" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" s="4"/>
       <c r="B1054" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1054" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" s="4"/>
       <c r="B1055" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1055" s="3">
-        <v>0.94097222222222221</v>
+        <v>0.99722222222222223</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" s="4"/>
-      <c r="B1056" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1056" s="3">
-        <v>0.99722222222222223</v>
-      </c>
+      <c r="C1056" s="5"/>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1057" s="4"/>
-      <c r="C1057" s="5"/>
+      <c r="A1057" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1057" s="3">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1058" s="1">
-        <v>44013</v>
-      </c>
+      <c r="A1058" s="4"/>
       <c r="B1058" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1058" s="3">
-        <v>0.34375</v>
+        <v>0.35416666666787933</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" s="4"/>
       <c r="B1059" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1059" s="3">
-        <v>0.35416666666787933</v>
+        <v>0.36805555555474712</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" s="4"/>
       <c r="B1060" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C1060" s="3">
-        <v>0.36805555555474712</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" s="4"/>
       <c r="B1061" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C1061" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.55902777777777779</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" s="4"/>
       <c r="B1062" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1062" s="3">
-        <v>0.55902777777777779</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" s="4"/>
       <c r="B1063" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1063" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" s="4"/>
       <c r="B1064" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1064" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" s="4"/>
       <c r="B1065" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1065" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" s="4"/>
       <c r="B1066" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C1066" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" s="4"/>
       <c r="B1067" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C1067" s="3">
-        <v>0.8125</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" s="4"/>
       <c r="B1068" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1068" s="3">
-        <v>0.91666666666666663</v>
+        <v>20</v>
+      </c>
+      <c r="C1068" s="6">
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" s="4"/>
       <c r="B1069" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1069" s="6">
-        <v>0.93055555555555558</v>
+        <v>11</v>
+      </c>
+      <c r="C1069" s="3">
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" s="4"/>
       <c r="B1070" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C1070" s="3">
-        <v>0.97916666666666663</v>
+        <v>0.98958333333333337</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" s="4"/>
-      <c r="B1071" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1071" s="3">
-        <v>0.98958333333333337</v>
-      </c>
+      <c r="C1071" s="5"/>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1072" s="4"/>
-      <c r="C1072" s="5"/>
+      <c r="A1072" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B1072" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1072" s="3">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1073" s="1">
-        <v>44014</v>
-      </c>
+      <c r="A1073" s="4"/>
       <c r="B1073" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1073" s="3">
-        <v>0.34375</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" s="4"/>
       <c r="B1074" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C1074" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" s="4"/>
       <c r="B1075" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1075" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" s="4"/>
       <c r="B1076" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1076" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" s="4"/>
       <c r="B1077" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C1077" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" s="4"/>
       <c r="B1078" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C1078" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" s="4"/>
       <c r="B1079" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C1079" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" s="4"/>
       <c r="B1080" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1080" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" s="4"/>
       <c r="B1081" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C1081" s="3">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" s="4"/>
       <c r="B1082" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1082" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" s="4"/>
       <c r="B1083" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1083" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" s="4"/>
       <c r="B1084" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C1084" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" s="4"/>
       <c r="B1085" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1085" s="3">
-        <v>0.89236111111111116</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" s="4"/>
       <c r="B1086" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1086" s="3">
-        <v>0.90625</v>
+        <v>0.91319444444444442</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" s="4"/>
       <c r="B1087" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C1087" s="3">
-        <v>0.91319444444444442</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" s="4"/>
       <c r="B1088" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1088" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.98611111111111116</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" s="4"/>
-      <c r="B1089" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1089" s="3">
-        <v>0.98611111111111116</v>
-      </c>
+      <c r="C1089" s="5"/>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1090" s="4"/>
-      <c r="C1090" s="5"/>
+      <c r="A1090" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B1090" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1090" s="3">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1091" s="1">
-        <v>44015</v>
-      </c>
+      <c r="A1091" s="4"/>
       <c r="B1091" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1091" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" s="4"/>
       <c r="B1092" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1092" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" s="4"/>
       <c r="B1093" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1093" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" s="4"/>
       <c r="B1094" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1094" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" s="4"/>
       <c r="B1095" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C1095" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" s="4"/>
       <c r="B1096" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C1096" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" s="4"/>
       <c r="B1097" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C1097" s="3">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" s="4"/>
       <c r="B1098" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1098" s="3">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" s="4"/>
       <c r="B1099" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1099" s="3">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" s="4"/>
       <c r="B1100" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1100" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" s="4"/>
       <c r="B1101" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1101" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" s="4"/>
-      <c r="B1102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1102" s="3">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="C1102" s="5"/>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1103" s="4"/>
-      <c r="C1103" s="5"/>
+      <c r="A1103" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1103" s="3">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1104" s="1">
-        <v>44025</v>
-      </c>
+      <c r="A1104" s="4"/>
       <c r="B1104" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1104" s="3">
-        <v>0.34375</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" s="4"/>
       <c r="B1105" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C1105" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" s="4"/>
       <c r="B1106" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1106" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" s="4"/>
       <c r="B1107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1107" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1108" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1107" s="3">
-        <v>0.4513888888888889</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1108" s="4"/>
-      <c r="B1108" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1108" s="3">
-        <v>0.47569444444444442</v>
+      <c r="C1108" s="6">
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1109" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C1109" s="6">
-        <v>0.52777777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1110" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1110" s="6">
-        <v>0.55555555555555558</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1111" s="4"/>
       <c r="B1111" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1111" s="6">
-        <v>0.57638888888888884</v>
+        <v>28</v>
+      </c>
+      <c r="C1111" s="3">
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" s="4"/>
       <c r="B1112" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1112" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" s="4"/>
       <c r="B1113" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C1113" s="3">
-        <v>0.75</v>
+        <v>0.78819444444444442</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" s="4"/>
       <c r="B1114" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C1114" s="3">
-        <v>0.78819444444444442</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" s="4"/>
       <c r="B1115" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1115" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" s="4"/>
       <c r="B1116" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1116" s="3">
-        <v>0.8125</v>
+        <v>39</v>
+      </c>
+      <c r="C1116" s="6">
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" s="4"/>
       <c r="B1117" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1117" s="6">
-        <v>0.88888888888888884</v>
+        <v>29</v>
+      </c>
+      <c r="C1117" s="3">
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" s="4"/>
       <c r="B1118" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1118" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" s="4"/>
       <c r="B1119" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C1119" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" s="4"/>
       <c r="B1120" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C1120" s="3">
-        <v>0.94097222222222221</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" s="4"/>
-      <c r="B1121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1121" s="3">
-        <v>0.96875</v>
-      </c>
+      <c r="C1121" s="5"/>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1122" s="4"/>
-      <c r="C1122" s="5"/>
+      <c r="A1122" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1122" s="3">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1123" s="1">
-        <v>43996</v>
-      </c>
+      <c r="A1123" s="4"/>
       <c r="B1123" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1123" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" s="4"/>
       <c r="B1124" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1124" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" s="4"/>
       <c r="B1125" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1125" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" s="4"/>
       <c r="B1126" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1126" s="3">
-        <v>0.3576388888888889</v>
+        <v>0.40972222222222221</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" s="4"/>
       <c r="B1127" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1127" s="3">
-        <v>0.40972222222222221</v>
+        <v>7</v>
+      </c>
+      <c r="C1127" s="6">
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" s="4"/>
       <c r="B1128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1128" s="6">
-        <v>0.4513888888888889</v>
+        <v>11</v>
+      </c>
+      <c r="C1128" s="3">
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" s="4"/>
       <c r="B1129" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C1129" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" s="4"/>
       <c r="B1130" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C1130" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" s="4"/>
       <c r="B1131" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C1131" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" s="4"/>
       <c r="B1132" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C1132" s="3">
-        <v>0.53472222222222221</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" s="4"/>
       <c r="B1133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1133" s="3">
-        <v>0.54166666666666663</v>
+        <v>50</v>
+      </c>
+      <c r="C1133" s="6">
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" s="4"/>
       <c r="B1134" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1134" s="6">
-        <v>0.55555555555555558</v>
+        <v>14</v>
+      </c>
+      <c r="C1134" s="3">
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" s="4"/>
       <c r="B1135" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1135" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" s="4"/>
       <c r="B1136" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1136" s="3">
-        <v>0.59027777777777779</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" s="4"/>
       <c r="B1137" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C1137" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" s="4"/>
       <c r="B1138" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C1138" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" s="4"/>
       <c r="B1139" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1139" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" s="4"/>
       <c r="B1140" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C1140" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" s="4"/>
       <c r="B1141" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1141" s="3">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" s="4"/>
       <c r="B1142" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C1142" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" s="4"/>
       <c r="B1143" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C1143" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" s="4"/>
-      <c r="B1144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1144" s="3">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="C1144" s="5"/>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1145" s="4"/>
-      <c r="C1145" s="5"/>
+      <c r="A1145" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1145" s="3">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1146" s="1">
-        <v>44027</v>
-      </c>
+      <c r="A1146" s="4"/>
       <c r="B1146" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1146" s="3">
-        <v>0.29166666666666669</v>
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" s="4"/>
       <c r="B1147" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1147" s="3">
-        <v>0.30208333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" s="4"/>
       <c r="B1148" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C1148" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" s="4"/>
       <c r="B1149" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C1149" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" s="4"/>
       <c r="B1150" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C1150" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" s="4"/>
       <c r="B1151" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C1151" s="3">
-        <v>0.69444444444444442</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" s="4"/>
       <c r="B1152" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C1152" s="3">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" s="4"/>
       <c r="B1153" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1153" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" s="4"/>
       <c r="B1154" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1154" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" s="4"/>
       <c r="B1155" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1155" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" s="4"/>
       <c r="B1156" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C1156" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" s="4"/>
       <c r="B1157" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C1157" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.99930555555555556</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" s="4"/>
-      <c r="B1158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1158" s="3">
-        <v>0.99930555555555556</v>
-      </c>
+      <c r="C1158" s="5"/>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1159" s="4"/>
-      <c r="C1159" s="5"/>
+      <c r="A1159" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1159" s="3">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1160" s="1">
-        <v>44028</v>
-      </c>
+      <c r="A1160" s="4"/>
       <c r="B1160" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1160" s="3">
-        <v>0.34375</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" s="4"/>
       <c r="B1161" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C1161" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" s="4"/>
       <c r="B1162" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C1162" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" s="4"/>
       <c r="B1163" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C1163" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" s="4"/>
       <c r="B1164" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C1164" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" s="4"/>
       <c r="B1165" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C1165" s="3">
-        <v>0.46875</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" s="4"/>
       <c r="B1166" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C1166" s="3">
-        <v>0.57638888888888884</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" s="4"/>
       <c r="B1167" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1167" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" s="4"/>
       <c r="B1168" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C1168" s="3">
-        <v>0.61805555555555558</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" s="4"/>
       <c r="B1169" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C1169" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" s="4"/>
       <c r="B1170" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1170" s="3">
-        <v>0.75694444444444442</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" s="4"/>
       <c r="B1171" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1171" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" s="4"/>
       <c r="B1172" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C1172" s="3">
-        <v>0.8125</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" s="4"/>
       <c r="B1173" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C1173" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.86458333333333337</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" s="4"/>
       <c r="B1174" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1174" s="3">
-        <v>0.86458333333333337</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" s="4"/>
       <c r="B1175" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1175" s="3">
-        <v>0.92708333333333337</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" s="4"/>
       <c r="B1176" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1176" s="3">
-        <v>0.94097222222222221</v>
+        <v>11</v>
+      </c>
+      <c r="C1176" s="6">
+        <v>0.98263888888888884</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" s="4"/>
-      <c r="B1177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1177" s="6">
-        <v>0.98263888888888884</v>
-      </c>
+      <c r="C1177" s="5"/>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1178" s="4"/>
-      <c r="C1178" s="5"/>
+      <c r="A1178" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1178" s="3">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1179" s="1">
-        <v>44029</v>
-      </c>
+      <c r="A1179" s="4"/>
       <c r="B1179" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1179" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" s="4"/>
       <c r="B1180" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1180" s="3">
-        <v>0.34375</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" s="4"/>
       <c r="B1181" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1181" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" s="4"/>
       <c r="B1182" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C1182" s="3">
-        <v>0.375</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" s="4"/>
       <c r="B1183" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C1183" s="3">
-        <v>0.44791666666666669</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" s="4"/>
       <c r="B1184" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1184" s="3">
-        <v>0.49305555555555558</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" s="4"/>
       <c r="B1185" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1185" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" s="4"/>
       <c r="B1186" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C1186" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" s="4"/>
       <c r="B1187" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C1187" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.71527777777777779</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" s="4"/>
       <c r="B1188" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C1188" s="3">
-        <v>0.71527777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" s="4"/>
       <c r="B1189" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C1189" s="3">
-        <v>0.72222222222222221</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" s="4"/>
       <c r="B1190" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C1190" s="3">
-        <v>0.74652777777777779</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" s="4"/>
       <c r="B1191" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1191" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" s="4"/>
       <c r="B1192" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1192" s="3">
-        <v>0.82986111111111116</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" s="4"/>
       <c r="B1193" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C1193" s="3">
-        <v>0.86111111111111116</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" s="4"/>
       <c r="B1194" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1194" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" s="4"/>
       <c r="B1195" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1195" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" s="4"/>
-      <c r="B1196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1196" s="3">
-        <v>0.96527777777777779</v>
-      </c>
+      <c r="C1196" s="5"/>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1197" s="4"/>
-      <c r="C1197" s="5"/>
+      <c r="A1197" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1197" s="3">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1198" s="1">
-        <v>44030</v>
-      </c>
+      <c r="A1198" s="4"/>
       <c r="B1198" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1198" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" s="4"/>
       <c r="B1199" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1199" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" s="4"/>
       <c r="B1200" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C1200" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" s="4"/>
       <c r="B1201" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C1201" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" s="4"/>
       <c r="B1202" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1202" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" s="4"/>
       <c r="B1203" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1203" s="3">
-        <v>0.53125</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" s="4"/>
       <c r="B1204" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1204" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" s="4"/>
-      <c r="B1205" s="2" t="s">
-        <v>14</v>
+      <c r="B1205" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1205" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.67361111111111116</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" s="4"/>
       <c r="B1206" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C1206" s="3">
-        <v>0.67361111111111116</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" s="4"/>
       <c r="B1207" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1207" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" s="4"/>
-      <c r="B1208" s="2" t="s">
-        <v>17</v>
+      <c r="B1208" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1208" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" s="4"/>
       <c r="B1209" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C1209" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" s="4"/>
       <c r="B1210" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1210" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" s="4"/>
-      <c r="B1211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1211" s="3">
-        <v>0.96527777777777779</v>
-      </c>
+      <c r="C1211" s="5"/>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1212" s="4"/>
-      <c r="C1212" s="5"/>
+      <c r="A1212" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1212" s="3">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1213" s="1">
-        <v>44031</v>
-      </c>
+      <c r="A1213" s="4"/>
       <c r="B1213" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1213" s="3">
-        <v>0.34375</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" s="4"/>
       <c r="B1214" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1214" s="3">
-        <v>0.3576388888888889</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" s="4"/>
-      <c r="B1215" s="2" t="s">
-        <v>24</v>
+      <c r="B1215" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1215" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" s="4"/>
       <c r="B1216" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C1216" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" s="4"/>
       <c r="B1217" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1217" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" s="4"/>
-      <c r="B1218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1218" s="3">
-        <v>0.89930555555555558</v>
-      </c>
+      <c r="C1218" s="5"/>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1219" s="4"/>
-      <c r="C1219" s="5"/>
+      <c r="A1219" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B1219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1219" s="3">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1220" s="1">
-        <v>44002</v>
-      </c>
+      <c r="A1220" s="4"/>
       <c r="B1220" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1220" s="3">
-        <v>0.25</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" s="4"/>
       <c r="B1221" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C1221" s="3">
-        <v>0.26041666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" s="4"/>
       <c r="B1222" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1222" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" s="4"/>
-      <c r="B1223" s="2" t="s">
-        <v>17</v>
+      <c r="B1223" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1223" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" s="4"/>
       <c r="B1224" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C1224" s="3">
-        <v>0.37847222222222221</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" s="4"/>
       <c r="B1225" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1225" s="3">
-        <v>0.41666666666666669</v>
+        <v>29</v>
+      </c>
+      <c r="C1225" s="6">
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" s="4"/>
       <c r="B1226" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1226" s="6">
-        <v>0.44791666666666669</v>
+        <v>17</v>
+      </c>
+      <c r="C1226" s="3">
+        <v>0.4548611111111111</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" s="4"/>
-      <c r="B1227" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1227" s="3">
-        <v>0.4548611111111111</v>
+      <c r="B1227" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1227" s="6">
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" s="4"/>
       <c r="B1228" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1228" s="6">
-        <v>0.49305555555555558</v>
+        <v>14</v>
+      </c>
+      <c r="C1228" s="3">
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" s="4"/>
       <c r="B1229" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1229" s="3">
-        <v>0.51388888888888884</v>
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" s="4"/>
       <c r="B1230" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C1230" s="3">
-        <v>0.56597222222222221</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" s="4"/>
-      <c r="B1231" s="2" t="s">
-        <v>44</v>
+      <c r="B1231" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1231" s="3">
-        <v>0.57291666666666663</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" s="4"/>
       <c r="B1232" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C1232" s="3">
-        <v>0.61805555555555558</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" s="4"/>
       <c r="B1233" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C1233" s="3">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" s="4"/>
       <c r="B1234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1234" s="3">
-        <v>0.66666666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="C1234" s="6">
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" s="4"/>
       <c r="B1235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1235" s="6">
-        <v>0.68055555555555558</v>
+        <v>36</v>
+      </c>
+      <c r="C1235" s="3">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" s="4"/>
       <c r="B1236" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C1236" s="3">
-        <v>0.6875</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" s="4"/>
-      <c r="B1237" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1237" s="3">
-        <v>0.69444444444444442</v>
+      <c r="B1237" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1237" s="6">
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" s="4"/>
       <c r="B1238" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1238" s="6">
-        <v>0.72222222222222221</v>
+        <v>36</v>
+      </c>
+      <c r="C1238" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" s="4"/>
-      <c r="B1239" s="2" t="s">
-        <v>36</v>
+      <c r="B1239" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1239" s="3">
-        <v>0.75</v>
+        <v>0.79513888888888884</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" s="4"/>
       <c r="B1240" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C1240" s="3">
-        <v>0.79513888888888884</v>
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" s="4"/>
-      <c r="B1241" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1241" s="3">
-        <v>0.80208333333333337</v>
+      <c r="B1241" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1241" s="7">
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" s="4"/>
       <c r="B1242" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C1242" s="7">
-        <v>0.81944444444444442</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" s="4"/>
-      <c r="B1243" s="2" t="s">
-        <v>20</v>
+      <c r="B1243" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C1243" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.84722222222222221</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" s="4"/>
       <c r="B1244" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C1244" s="7">
-        <v>0.84722222222222221</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" s="4"/>
       <c r="B1245" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1245" s="7">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" s="4"/>
       <c r="B1246" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1246" s="7">
-        <v>0.91666666666666663</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" s="4"/>
-      <c r="B1247" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1247" s="7">
-        <v>0.93055555555555558</v>
-      </c>
+      <c r="C1247" s="5"/>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1248" s="4"/>
-      <c r="C1248" s="5"/>
+      <c r="A1248" s="4">
+        <v>44033</v>
+      </c>
+      <c r="B1248" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1248" s="5">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1249" s="8">
-        <v>44033</v>
-      </c>
-      <c r="B1249" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1249" s="7">
-        <v>0.29166666666666669</v>
+      <c r="A1249" s="4"/>
+      <c r="B1249" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1249" s="5">
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" s="4"/>
-      <c r="B1250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1250" s="7">
-        <v>0.30208333333333331</v>
+      <c r="B1250" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1250" s="5">
+        <v>0.375</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" s="4"/>
-      <c r="B1251" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1251" s="7">
-        <v>0.375</v>
+      <c r="B1251" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1251" s="5">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" s="4"/>
-      <c r="C1252" s="5"/>
+      <c r="B1252" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1252" s="5">
+        <v>0.46875</v>
+      </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" s="4"/>
-      <c r="C1253" s="5"/>
+      <c r="B1253" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1253" s="5">
+        <v>0.55208333333333337</v>
+      </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" s="4"/>
-      <c r="C1254" s="5"/>
+      <c r="B1254" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1254" s="5">
+        <v>0.56944444444444442</v>
+      </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" s="4"/>
-      <c r="C1255" s="5"/>
+      <c r="B1255" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1255" s="5">
+        <v>0.58680555555555558</v>
+      </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" s="4"/>
-      <c r="C1256" s="5"/>
+      <c r="B1256" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1256" s="5">
+        <v>0.59375</v>
+      </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" s="4"/>
-      <c r="C1257" s="5"/>
+      <c r="B1257" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1257" s="5">
+        <v>0.60763888888888884</v>
+      </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" s="4"/>
-      <c r="C1258" s="5"/>
+      <c r="B1258" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1258" s="5">
+        <v>0.63194444444444442</v>
+      </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" s="4"/>
-      <c r="C1259" s="5"/>
+      <c r="B1259" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1259" s="5">
+        <v>0.6875</v>
+      </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" s="4"/>
-      <c r="C1260" s="5"/>
+      <c r="B1260" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1260" s="5">
+        <v>0.69444444444444442</v>
+      </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" s="4"/>
-      <c r="C1261" s="5"/>
+      <c r="B1261" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1261" s="5">
+        <v>0.70833333333333337</v>
+      </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" s="4"/>
-      <c r="C1262" s="5"/>
+      <c r="B1262" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1262" s="5">
+        <v>0.85763888888888884</v>
+      </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" s="4"/>
-      <c r="C1263" s="5"/>
+      <c r="B1263" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1263" s="5">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" s="4"/>
-      <c r="C1264" s="5"/>
+      <c r="B1264" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1264" s="5">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" s="4"/>
-      <c r="C1265" s="5"/>
+      <c r="B1265" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1265" s="5">
+        <v>0.94791666666666663</v>
+      </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" s="4"/>
+      <c r="B1266" s="9"/>
       <c r="C1266" s="5"/>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1267" s="4"/>
-      <c r="C1267" s="5"/>
+      <c r="A1267" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B1267" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1267" s="5">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" s="4"/>
-      <c r="C1268" s="5"/>
+      <c r="B1268" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1268" s="5">
+        <v>0.30555555555555558</v>
+      </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" s="4"/>
-      <c r="C1269" s="5"/>
+      <c r="B1269" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1269" s="5">
+        <v>0.35416666666666669</v>
+      </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" s="4"/>
-      <c r="C1270" s="5"/>
+      <c r="B1270" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1270" s="5">
+        <v>0.48958333333333331</v>
+      </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" s="4"/>
-      <c r="C1271" s="5"/>
+      <c r="B1271" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1271" s="5">
+        <v>0.51041666666666663</v>
+      </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" s="4"/>
-      <c r="C1272" s="5"/>
+      <c r="B1272" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1272" s="5">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" s="4"/>
-      <c r="C1273" s="5"/>
+      <c r="B1273" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1273" s="5">
+        <v>0.54861111111111116</v>
+      </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" s="4"/>
-      <c r="C1274" s="5"/>
+      <c r="B1274" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1274" s="5">
+        <v>0.56597222222222221</v>
+      </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" s="4"/>
-      <c r="C1275" s="5"/>
+      <c r="B1275" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1275" s="5">
+        <v>0.65625</v>
+      </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" s="4"/>
-      <c r="C1276" s="5"/>
+      <c r="B1276" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1276" s="5">
+        <v>0.67708333333333337</v>
+      </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" s="4"/>
-      <c r="C1277" s="5"/>
+      <c r="B1277" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1277" s="5">
+        <v>0.77777777777777779</v>
+      </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" s="4"/>
-      <c r="C1278" s="5"/>
+      <c r="B1278" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1278" s="5">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" s="4"/>
-      <c r="C1279" s="5"/>
+      <c r="B1279" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1279" s="10">
+        <v>0.82986111111111116</v>
+      </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" s="4"/>
-      <c r="C1280" s="5"/>
+      <c r="B1280" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1280" s="11">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" s="4"/>
-      <c r="C1281" s="5"/>
+      <c r="B1281" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1281" s="11">
+        <v>0.94791666666666663</v>
+      </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" s="4"/>
+      <c r="B1282" s="9"/>
       <c r="C1282" s="5"/>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1283" s="4"/>
-      <c r="C1283" s="5"/>
+      <c r="A1283" s="12">
+        <v>44035</v>
+      </c>
+      <c r="B1283" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1283" s="11">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" s="4"/>
-      <c r="C1284" s="5"/>
+      <c r="B1284" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1284" s="11">
+        <v>0.30208333333333331</v>
+      </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" s="4"/>
-      <c r="C1285" s="5"/>
+      <c r="B1285" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1285" s="11">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" s="4"/>
-      <c r="C1286" s="5"/>
+      <c r="B1286" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1286" s="11">
+        <v>0.47569444444444442</v>
+      </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" s="4"/>
-      <c r="C1287" s="5"/>
+      <c r="B1287" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1287" s="11">
+        <v>0.49305555555555558</v>
+      </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" s="4"/>
-      <c r="C1288" s="5"/>
+      <c r="B1288" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1288" s="11">
+        <v>0.50694444444444442</v>
+      </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" s="4"/>
-      <c r="C1289" s="5"/>
+      <c r="B1289" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1289" s="11">
+        <v>0.53472222222222221</v>
+      </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" s="4"/>
-      <c r="C1290" s="5"/>
+      <c r="B1290" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1290" s="11">
+        <v>0.61111111111111116</v>
+      </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" s="4"/>
-      <c r="C1291" s="5"/>
+      <c r="B1291" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1291" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" s="4"/>
-      <c r="C1292" s="5"/>
+      <c r="B1292" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1292" s="11">
+        <v>0.78472222222222221</v>
+      </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" s="4"/>
-      <c r="C1293" s="5"/>
+      <c r="B1293" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1293" s="11">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" s="4"/>
-      <c r="C1294" s="5"/>
+      <c r="B1294" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1294" s="11">
+        <v>0.82291666666666663</v>
+      </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" s="4"/>
-      <c r="C1295" s="5"/>
+      <c r="B1295" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1295" s="11">
+        <v>0.85416666666666663</v>
+      </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" s="4"/>
-      <c r="C1296" s="5"/>
+      <c r="B1296" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1296" s="11">
+        <v>0.90972222222222221</v>
+      </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" s="4"/>
-      <c r="C1297" s="5"/>
+      <c r="B1297" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1297" s="11">
+        <v>0.92708333333333337</v>
+      </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" s="4"/>
-      <c r="C1298" s="5"/>
+      <c r="B1298" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1298" s="11">
+        <v>0.94791666666666663</v>
+      </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" s="4"/>
+      <c r="B1299" s="9"/>
       <c r="C1299" s="5"/>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1300" s="4"/>
-      <c r="C1300" s="5"/>
+      <c r="A1300" s="12">
+        <v>44036</v>
+      </c>
+      <c r="B1300" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1300" s="11">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" s="4"/>
-      <c r="C1301" s="5"/>
+      <c r="B1301" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1301" s="11">
+        <v>0.2986111111111111</v>
+      </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" s="4"/>
-      <c r="C1302" s="5"/>
+      <c r="B1302" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1302" s="11">
+        <v>0.36805555555555558</v>
+      </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" s="4"/>
@@ -12221,10 +12477,6 @@
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" s="4"/>
       <c r="C1345" s="5"/>
-    </row>
-    <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1346" s="4"/>
-      <c r="C1346" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/database/seeders/spreadsheet/0.spreadsheet.xlsx
+++ b/database/seeders/spreadsheet/0.spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merlin\Desktop\projects\acitivity-analyzer\database\seeders\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C066193-CE25-4A28-B587-AD76FCE80919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF266E-8154-4F5F-86B1-3443B84C659C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -236,13 +236,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -461,10 +458,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1345"/>
+  <dimension ref="A1:G1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1188" workbookViewId="0">
-      <selection activeCell="B1208" sqref="B1208"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,7 +581,7 @@
         <v>0.51388888888888884</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -600,9 +597,6 @@
       </c>
       <c r="C8" s="3">
         <v>0.52430555555555558</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -1025,7 +1019,7 @@
         <v>41</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,7 +1151,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1172,7 +1166,7 @@
         <v>51</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,7 +1181,7 @@
         <v>52</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3110,7 +3104,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>6</v>
@@ -3269,7 +3263,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>6</v>
@@ -6182,6201 +6176,6280 @@
       <c r="C610" s="5"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="1">
+      <c r="A611" s="4"/>
+      <c r="C611" s="5"/>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
         <v>43992</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B612" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C611" s="3">
+      <c r="C612" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="4"/>
-      <c r="B612" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C612" s="3">
-        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C613" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C614" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C615" s="3">
-        <v>0.52777777777777779</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C616" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C617" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C618" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C619" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C620" s="3">
-        <v>0.6875</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C621" s="3">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C622" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C623" s="3">
-        <v>0.75694444444444442</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C624" s="3">
-        <v>0.76388888888888884</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C625" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C626" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C627" s="3">
-        <v>0.8125</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C628" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C629" s="3">
-        <v>0.82638888888888884</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C630" s="3">
-        <v>0.84027777777777779</v>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C631" s="3">
-        <v>0.90625</v>
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C632" s="3">
-        <v>0.92013888888888884</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C633" s="3">
-        <v>0.92708333333333337</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C634" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
-      <c r="C635" s="2"/>
+      <c r="B635" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C635" s="3">
+        <v>0.93402777777777779</v>
+      </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="1">
+      <c r="A636" s="4"/>
+      <c r="C636" s="2"/>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
         <v>43993</v>
       </c>
-      <c r="B636" s="2" t="s">
+      <c r="B637" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C636" s="3">
+      <c r="C637" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A637" s="4"/>
-      <c r="B637" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C637" s="3">
-        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C638" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C639" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C640" s="6">
-        <v>0.375</v>
+        <v>17</v>
+      </c>
+      <c r="C640" s="3">
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C641" s="3">
-        <v>0.51041666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="C641" s="6">
+        <v>0.375</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C642" s="3">
-        <v>0.53125</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C643" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C644" s="3">
-        <v>0.5625</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C645" s="6">
-        <v>0.57638888888888884</v>
+        <v>12</v>
+      </c>
+      <c r="C645" s="3">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C646" s="3">
-        <v>0.60416666666666663</v>
+        <v>11</v>
+      </c>
+      <c r="C646" s="6">
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C647" s="3">
-        <v>0.61111111111111116</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C648" s="3">
-        <v>0.62847222222222221</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C649" s="3">
-        <v>0.64236111111111116</v>
+        <v>0.62847222222222221</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C650" s="3">
-        <v>0.69444444444444442</v>
+        <v>0.64236111111111116</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C651" s="6">
-        <v>0.70138888888888884</v>
+        <v>38</v>
+      </c>
+      <c r="C651" s="3">
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C652" s="3">
-        <v>0.77777777777777779</v>
+        <v>31</v>
+      </c>
+      <c r="C652" s="6">
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C653" s="3">
-        <v>0.80208333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C654" s="3">
-        <v>0.81597222222222221</v>
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C655" s="3">
-        <v>0.82986111111111116</v>
+        <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C656" s="3">
-        <v>0.84027777777777779</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C657" s="3">
-        <v>0.86805555555555558</v>
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C658" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.86805555555555558</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C659" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C660" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C661" s="3">
-        <v>0.95138888888888884</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C662" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.95138888888888884</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
-      <c r="C663" s="5"/>
+      <c r="B663" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C663" s="3">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A664" s="1">
+      <c r="A664" s="4"/>
+      <c r="C664" s="5"/>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
         <v>43994</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B665" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C664" s="3">
+      <c r="C665" s="3">
         <v>0.30208333333333331</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A665" s="4"/>
-      <c r="B665" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C665" s="3">
-        <v>0.3125</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C666" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C667" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C668" s="3">
-        <v>0.3923611111111111</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C669" s="3">
-        <v>0.4513888888888889</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C670" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C671" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C672" s="6">
-        <v>0.49652777777777779</v>
+        <v>29</v>
+      </c>
+      <c r="C672" s="3">
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C673" s="3">
-        <v>0.54166666666666663</v>
+        <v>14</v>
+      </c>
+      <c r="C673" s="6">
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C674" s="3">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C675" s="6">
-        <v>0.56944444444444442</v>
+        <v>11</v>
+      </c>
+      <c r="C675" s="3">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C676" s="3">
-        <v>0.57986111111111116</v>
+        <v>26</v>
+      </c>
+      <c r="C676" s="6">
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C677" s="3">
-        <v>0.59027777777777779</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C678" s="6">
-        <v>0.64583333333333337</v>
+        <v>12</v>
+      </c>
+      <c r="C678" s="3">
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C679" s="3">
-        <v>0.69791666666666663</v>
+        <v>9</v>
+      </c>
+      <c r="C679" s="6">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C680" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C681" s="3">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C682" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C683" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C684" s="3">
-        <v>0.86805555555555558</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C685" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.86805555555555558</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C686" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C687" s="3">
-        <v>0.91319444444444442</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C688" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.91319444444444442</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C689" s="6">
-        <v>0.96875</v>
+        <v>19</v>
+      </c>
+      <c r="C689" s="3">
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
-      <c r="C690" s="5"/>
+      <c r="B690" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C690" s="6">
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A691" s="1">
+      <c r="A691" s="4"/>
+      <c r="C691" s="5"/>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
         <v>43995</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B692" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C691" s="3">
+      <c r="C692" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A692" s="4"/>
-      <c r="B692" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C692" s="3">
-        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C693" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C694" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C695" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C696" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C697" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C698" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C699" s="3">
-        <v>0.95486111111111116</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C700" s="3">
-        <v>0.96180555555555558</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
-      <c r="C701" s="5"/>
+      <c r="B701" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C701" s="3">
+        <v>0.96180555555555558</v>
+      </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A702" s="1">
+      <c r="A702" s="4"/>
+      <c r="C702" s="5"/>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
         <v>43996</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B703" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C702" s="3">
+      <c r="C703" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A703" s="4"/>
-      <c r="B703" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C703" s="3">
-        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C704" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C705" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C706" s="3">
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C707" s="3">
-        <v>0.49652777777777779</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C708" s="3">
-        <v>0.51388888888888884</v>
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C709" s="3">
-        <v>0.53125</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C710" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C711" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C712" s="3">
-        <v>0.59375</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C713" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C714" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C715" s="6">
-        <v>0.64930555555555558</v>
+        <v>14</v>
+      </c>
+      <c r="C715" s="3">
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C716" s="3">
-        <v>0.80555555555555558</v>
+        <v>11</v>
+      </c>
+      <c r="C716" s="6">
+        <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C717" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C718" s="6">
-        <v>0.95833333333333337</v>
+        <v>30</v>
+      </c>
+      <c r="C718" s="3">
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C719" s="6">
-        <v>0.96180555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
-      <c r="C720" s="5"/>
+      <c r="B720" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C720" s="6">
+        <v>0.96180555555555558</v>
+      </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A721" s="1">
+      <c r="A721" s="4"/>
+      <c r="C721" s="5"/>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
         <v>43997</v>
       </c>
-      <c r="B721" s="2" t="s">
+      <c r="B722" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C721" s="3">
+      <c r="C722" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A722" s="4"/>
-      <c r="B722" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C722" s="3">
-        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C723" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C724" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C725" s="3">
-        <v>0.375</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C726" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C727" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C728" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C729" s="3">
-        <v>0.69444444444444442</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C730" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C731" s="3">
-        <v>0.80902777777777779</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C732" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.80902777777777779</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C733" s="3">
-        <v>0.86111111111111116</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C734" s="3">
-        <v>0.875</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C735" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C736" s="3">
-        <v>0.90625</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C737" s="3">
-        <v>0.92708333333333337</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C738" s="3">
-        <v>0.9375</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C739" s="3">
-        <v>0.96875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C740" s="3">
-        <v>0.97569444444444442</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
-      <c r="C741" s="5"/>
+      <c r="B741" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C741" s="3">
+        <v>0.97569444444444442</v>
+      </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A742" s="1">
+      <c r="A742" s="4"/>
+      <c r="C742" s="5"/>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
         <v>43998</v>
       </c>
-      <c r="B742" s="2" t="s">
+      <c r="B743" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C742" s="3">
+      <c r="C743" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A743" s="4"/>
-      <c r="B743" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C743" s="3">
-        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C744" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C745" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C746" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C747" s="3">
-        <v>0.47222222222222221</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C748" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C749" s="3">
-        <v>0.53472222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C750" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C751" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C752" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C753" s="6">
-        <v>0.61111111111111116</v>
+        <v>38</v>
+      </c>
+      <c r="C753" s="3">
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C754" s="3">
-        <v>0.70138888888888884</v>
+        <v>12</v>
+      </c>
+      <c r="C754" s="6">
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C755" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C756" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C757" s="6">
-        <v>0.84027777777777779</v>
+        <v>38</v>
+      </c>
+      <c r="C757" s="3">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C758" s="3">
-        <v>0.86111111111111116</v>
+        <v>20</v>
+      </c>
+      <c r="C758" s="6">
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C759" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C760" s="3">
-        <v>0.9375</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C761" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C762" s="3">
-        <v>0.96180555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
-      <c r="C763" s="5"/>
+      <c r="B763" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C763" s="3">
+        <v>0.96180555555555558</v>
+      </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A764" s="1">
+      <c r="A764" s="4"/>
+      <c r="C764" s="5"/>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
         <v>43999</v>
       </c>
-      <c r="B764" s="2" t="s">
+      <c r="B765" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C764" s="3">
+      <c r="C765" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A765" s="4"/>
-      <c r="B765" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C765" s="3">
-        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C766" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C767" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C768" s="3">
-        <v>0.375</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C769" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C770" s="3">
-        <v>0.57291666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C771" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C772" s="3">
-        <v>0.59375</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C773" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C774" s="3">
-        <v>0.73611111111111116</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C775" s="3">
-        <v>0.78125</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C776" s="3">
-        <v>0.81597222222222221</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C777" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.81597222222222221</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C778" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
-      <c r="C779" s="5"/>
+      <c r="B779" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C779" s="3">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A780" s="1">
+      <c r="A780" s="4"/>
+      <c r="C780" s="5"/>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
         <v>44000</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B781" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C780" s="3">
+      <c r="C781" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A781" s="4"/>
-      <c r="B781" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C781" s="3">
-        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C782" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C783" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C784" s="3">
-        <v>0.43402777777777779</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C785" s="3">
-        <v>0.44097222222222221</v>
+        <v>0.43402777777777779</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C786" s="3">
-        <v>0.46180555555555558</v>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C787" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.46180555555555558</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C788" s="6">
-        <v>0.50694444444444442</v>
+        <v>17</v>
+      </c>
+      <c r="C788" s="3">
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C789" s="6">
-        <v>0.53125</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C790" s="3">
-        <v>0.55902777777777779</v>
+        <v>14</v>
+      </c>
+      <c r="C790" s="6">
+        <v>0.53125</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C791" s="6">
-        <v>0.61111111111111116</v>
+        <v>38</v>
+      </c>
+      <c r="C791" s="3">
+        <v>0.55902777777777779</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C792" s="3">
-        <v>0.63888888888888884</v>
+        <v>18</v>
+      </c>
+      <c r="C792" s="6">
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C793" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C794" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C795" s="3">
-        <v>0.66319444444444442</v>
+        <v>0.65277777777777779</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C796" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C797" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C798" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C799" s="3">
-        <v>0.86458333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C800" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.86458333333333337</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C801" s="3">
-        <v>0.89236111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C802" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C803" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C804" s="3">
-        <v>0.94444444444444442</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
-      <c r="C805" s="5"/>
+      <c r="B805" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C805" s="3">
+        <v>0.94444444444444442</v>
+      </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A806" s="1">
+      <c r="A806" s="4"/>
+      <c r="C806" s="5"/>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
         <v>44001</v>
       </c>
-      <c r="B806" s="2" t="s">
+      <c r="B807" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C806" s="3">
+      <c r="C807" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A807" s="4"/>
-      <c r="B807" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C807" s="3">
-        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C808" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.31944444444444442</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C809" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C810" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C811" s="3">
-        <v>0.43402777777777779</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C812" s="3">
-        <v>0.4548611111111111</v>
+        <v>0.43402777777777779</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C813" s="3">
-        <v>0.46875</v>
+        <v>0.4548611111111111</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C814" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C815" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C816" s="3">
-        <v>0.53125</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C817" s="3">
-        <v>0.54513888888888884</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C818" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C819" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C820" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C821" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C822" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
-      <c r="C823" s="5"/>
+      <c r="B823" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C823" s="3">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A824" s="1">
+      <c r="A824" s="4"/>
+      <c r="C824" s="5"/>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
         <v>44002</v>
       </c>
-      <c r="B824" s="2" t="s">
+      <c r="B825" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C824" s="3">
+      <c r="C825" s="3">
         <v>0.30208333333333331</v>
-      </c>
-    </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A825" s="4"/>
-      <c r="B825" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C825" s="3">
-        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C826" s="3">
-        <v>0.34027777777777779</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C827" s="3">
-        <v>0.4375</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C828" s="3">
-        <v>0.46180555555555558</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C829" s="3">
-        <v>0.5625</v>
+        <v>0.46180555555555558</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C830" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C831" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C832" s="3">
-        <v>0.65972222222222221</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C833" s="3">
-        <v>0.67013888888888884</v>
+        <v>0.65972222222222221</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C834" s="3">
-        <v>0.70138888888888884</v>
+        <v>0.67013888888888884</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C835" s="3">
-        <v>0.71527777777777779</v>
+        <v>0.70138888888888884</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C836" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C837" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C838" s="3">
-        <v>0.875</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C839" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C840" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C841" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C842" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
-      <c r="C843" s="5"/>
+      <c r="B843" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C843" s="3">
+        <v>0.92361111111111116</v>
+      </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A844" s="1">
+      <c r="A844" s="4"/>
+      <c r="C844" s="5"/>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
         <v>44003</v>
       </c>
-      <c r="B844" s="2" t="s">
+      <c r="B845" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C844" s="3">
+      <c r="C845" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A845" s="4"/>
-      <c r="B845" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C845" s="3">
-        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C846" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C847" s="3">
-        <v>0.37152777777777779</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C848" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C849" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C850" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C851" s="3">
-        <v>0.50347222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C852" s="6">
-        <v>0.69791666666666663</v>
+        <v>29</v>
+      </c>
+      <c r="C852" s="3">
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C853" s="3">
-        <v>0.71180555555555558</v>
+        <v>18</v>
+      </c>
+      <c r="C853" s="6">
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C854" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.71180555555555558</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C855" s="3">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C856" s="3">
-        <v>0.8125</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C857" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C858" s="6">
-        <v>0.83333333333333337</v>
+        <v>42</v>
+      </c>
+      <c r="C858" s="3">
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C859" s="3">
-        <v>0.83680555555555558</v>
+        <v>11</v>
+      </c>
+      <c r="C859" s="6">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C860" s="3">
-        <v>0.87847222222222221</v>
+        <v>0.83680555555555558</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C861" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.87847222222222221</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C862" s="3">
-        <v>0.91319444444444442</v>
+        <v>0.89930555555555558</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
-      <c r="C863" s="5"/>
+      <c r="B863" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C863" s="3">
+        <v>0.91319444444444442</v>
+      </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A864" s="1">
+      <c r="A864" s="4"/>
+      <c r="C864" s="5"/>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
         <v>44004</v>
       </c>
-      <c r="B864" s="2" t="s">
+      <c r="B865" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C864" s="3">
+      <c r="C865" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A865" s="4"/>
-      <c r="B865" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C865" s="3">
-        <v>0.32291666667151731</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C866" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.32291666667151731</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C867" s="3">
-        <v>0.34375</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C868" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C869" s="3">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C870" s="3">
-        <v>0.4513888888888889</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C871" s="3">
-        <v>0.52777777777777779</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C872" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C873" s="3">
-        <v>0.54513888888888884</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C874" s="6">
-        <v>0.5625</v>
+        <v>15</v>
+      </c>
+      <c r="C874" s="3">
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C875" s="3">
-        <v>0.58680555555555558</v>
+        <v>36</v>
+      </c>
+      <c r="C875" s="6">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C876" s="3">
-        <v>0.59722222222222221</v>
+        <v>0.58680555555555558</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C877" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C878" s="3">
-        <v>0.65625</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C879" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C880" s="3">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C881" s="6">
-        <v>0.69097222222222221</v>
+        <v>38</v>
+      </c>
+      <c r="C881" s="3">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C882" s="3">
-        <v>0.73611111111111116</v>
+        <v>44</v>
+      </c>
+      <c r="C882" s="6">
+        <v>0.69097222222222221</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C883" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.73611111111111116</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C884" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C885" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C886" s="3">
-        <v>0.88194444444444442</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C887" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.88194444444444442</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C888" s="6">
-        <v>0.90277777777777779</v>
+        <v>29</v>
+      </c>
+      <c r="C888" s="3">
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C889" s="3">
-        <v>0.94444444444444442</v>
+        <v>20</v>
+      </c>
+      <c r="C889" s="6">
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C890" s="3">
-        <v>0.96527777777777779</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
-      <c r="C891" s="5"/>
+      <c r="B891" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C891" s="3">
+        <v>0.96527777777777779</v>
+      </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A892" s="1">
+      <c r="A892" s="4"/>
+      <c r="C892" s="5"/>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
         <v>44005</v>
       </c>
-      <c r="B892" s="2" t="s">
+      <c r="B893" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C892" s="3">
+      <c r="C893" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A893" s="4"/>
-      <c r="B893" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C893" s="3">
-        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C894" s="3">
-        <v>0.33680555555555558</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C895" s="3">
-        <v>0.34722222222222221</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C896" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C897" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C898" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C899" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C900" s="3">
-        <v>0.46875</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C901" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C902" s="3">
-        <v>0.49652777777777779</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C903" s="3">
-        <v>0.51388888888888884</v>
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C904" s="6">
-        <v>0.53472222222222221</v>
+        <v>36</v>
+      </c>
+      <c r="C904" s="3">
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C905" s="3">
-        <v>0.56597222222222221</v>
+        <v>14</v>
+      </c>
+      <c r="C905" s="6">
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C906" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C907" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C908" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C909" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C910" s="6">
-        <v>0.78125</v>
+        <v>38</v>
+      </c>
+      <c r="C910" s="3">
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C911" s="3">
-        <v>0.79166666666666663</v>
+        <v>17</v>
+      </c>
+      <c r="C911" s="6">
+        <v>0.78125</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C912" s="3">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C913" s="3">
-        <v>0.86805555555555558</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C914" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.86805555555555558</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C915" s="3">
-        <v>0.89236111111111116</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C916" s="3">
-        <v>0.94791666666666663</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C917" s="6">
-        <v>0.97222222222222221</v>
+        <v>38</v>
+      </c>
+      <c r="C917" s="3">
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
-      <c r="C918" s="5"/>
+      <c r="B918" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C918" s="6">
+        <v>0.97222222222222221</v>
+      </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A919" s="1">
+      <c r="A919" s="4"/>
+      <c r="C919" s="5"/>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
         <v>44006</v>
       </c>
-      <c r="B919" s="2" t="s">
+      <c r="B920" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C919" s="3">
+      <c r="C920" s="3">
         <v>0.32291666666666669</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A920" s="4"/>
-      <c r="B920" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C920" s="3">
-        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C921" s="6">
-        <v>0.34722222222222221</v>
+        <v>8</v>
+      </c>
+      <c r="C921" s="3">
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C922" s="3">
-        <v>0.3576388888888889</v>
+        <v>24</v>
+      </c>
+      <c r="C922" s="6">
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C923" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C924" s="3">
-        <v>0.4375</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C925" s="3">
-        <v>0.47222222222222221</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C926" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C927" s="3">
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C928" s="3">
-        <v>0.67361111111111116</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C929" s="3">
-        <v>0.70486111111111116</v>
+        <v>0.67361111111111116</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C930" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.70486111111111116</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C931" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
-      <c r="C932" s="5"/>
+      <c r="B932" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C932" s="3">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A933" s="1">
+      <c r="A933" s="4"/>
+      <c r="C933" s="5"/>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
         <v>44007</v>
       </c>
-      <c r="B933" s="2" t="s">
+      <c r="B934" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C933" s="3">
+      <c r="C934" s="3">
         <v>0.31944444444444442</v>
-      </c>
-    </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A934" s="4"/>
-      <c r="B934" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C934" s="3">
-        <v>0.33333333332848269</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C935" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.33333333332848269</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C936" s="3">
-        <v>0.3923611111111111</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C937" s="3">
-        <v>0.42708333333333331</v>
+        <v>0.3923611111111111</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C938" s="3">
-        <v>0.4375</v>
+        <v>0.42708333333333331</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C939" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C940" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C941" s="3">
-        <v>0.54513888888888884</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C942" s="3">
-        <v>0.61458333333333337</v>
+        <v>0.54513888888888884</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C943" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.61458333333333337</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C944" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C945" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C946" s="3">
-        <v>0.74652777777777779</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C947" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C948" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C949" s="3">
-        <v>0.88194444444444442</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C950" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.88194444444444442</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C951" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C952" s="3">
-        <v>0.94444444444444442</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C953" s="3">
-        <v>0.96180555555555558</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
-      <c r="C954" s="5"/>
+      <c r="B954" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C954" s="3">
+        <v>0.96180555555555558</v>
+      </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A955" s="1">
+      <c r="A955" s="4"/>
+      <c r="C955" s="5"/>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A956" s="1">
         <v>44008</v>
       </c>
-      <c r="B955" s="2" t="s">
+      <c r="B956" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C955" s="3">
+      <c r="C956" s="3">
         <v>0.3125</v>
-      </c>
-    </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A956" s="4"/>
-      <c r="B956" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C956" s="3">
-        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C957" s="3">
-        <v>0.34375</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C958" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C959" s="3">
-        <v>0.4375</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C960" s="3">
-        <v>0.46527777777777779</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C961" s="3">
-        <v>0.50347222222222221</v>
+        <v>0.46527777777777779</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C962" s="3">
-        <v>0.51736111111111116</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C963" s="3">
-        <v>0.71875</v>
+        <v>0.51736111111111116</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C964" s="3">
-        <v>0.76041666666666663</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C965" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C966" s="3">
-        <v>0.8125</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C967" s="3">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C968" s="3">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C969" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C970" s="3">
-        <v>0.92361111111111116</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C971" s="3">
-        <v>0.9375</v>
+        <v>0.92361111111111116</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C972" s="3">
-        <v>0.97569444444444442</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C973" s="3">
-        <v>0.98263888888888884</v>
+        <v>0.97569444444444442</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
-      <c r="C974" s="5"/>
+      <c r="B974" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C974" s="3">
+        <v>0.98263888888888884</v>
+      </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A975" s="1">
+      <c r="A975" s="4"/>
+      <c r="C975" s="5"/>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A976" s="1">
         <v>43989</v>
       </c>
-      <c r="B975" s="2" t="s">
+      <c r="B976" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C975" s="3">
+      <c r="C976" s="3">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A976" s="4"/>
-      <c r="B976" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C976" s="3">
-        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C977" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C978" s="3">
-        <v>0.40625</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C979" s="6">
-        <v>0.50694444444444442</v>
+        <v>11</v>
+      </c>
+      <c r="C979" s="3">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C980" s="3">
-        <v>0.54166666666666663</v>
+        <v>38</v>
+      </c>
+      <c r="C980" s="6">
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C981" s="6">
-        <v>0.5625</v>
+        <v>45</v>
+      </c>
+      <c r="C981" s="3">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C982" s="3">
-        <v>0.58333333333333337</v>
+        <v>14</v>
+      </c>
+      <c r="C982" s="6">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C983" s="3">
-        <v>0.59722222222222221</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C984" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C985" s="3">
-        <v>0.64236111111111116</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C986" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.64236111111111116</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C987" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C988" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C989" s="3">
-        <v>0.8125</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C990" s="3">
-        <v>0.85069444444444442</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C991" s="3">
-        <v>0.85763888888888884</v>
+        <v>0.85069444444444442</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C992" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.85763888888888884</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C993" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C994" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C995" s="3">
-        <v>0.96875</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
-      <c r="C996" s="5"/>
+      <c r="B996" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C996" s="3">
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A997" s="1">
+      <c r="A997" s="4"/>
+      <c r="C997" s="5"/>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A998" s="1">
         <v>44010</v>
       </c>
-      <c r="B997" s="2" t="s">
+      <c r="B998" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C997" s="3">
+      <c r="C998" s="3">
         <v>0.32291666666666669</v>
-      </c>
-    </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A998" s="4"/>
-      <c r="B998" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C998" s="3">
-        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C999" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1000" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" s="4"/>
       <c r="B1001" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1001" s="3">
-        <v>0.40625</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" s="4"/>
       <c r="B1002" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C1002" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" s="4"/>
       <c r="B1003" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1003" s="3">
-        <v>0.59722222222222221</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" s="4"/>
       <c r="B1004" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1004" s="6">
-        <v>0.61805555555555558</v>
+        <v>18</v>
+      </c>
+      <c r="C1004" s="3">
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" s="4"/>
       <c r="B1005" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1005" s="3">
-        <v>0.63194444444444442</v>
+        <v>43</v>
+      </c>
+      <c r="C1005" s="6">
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" s="4"/>
       <c r="B1006" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1006" s="3">
-        <v>0.63541666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" s="4"/>
       <c r="B1007" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1007" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" s="4"/>
       <c r="B1008" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1008" s="3">
-        <v>0.6875</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="4"/>
       <c r="B1009" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1009" s="3">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="4"/>
       <c r="B1010" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C1010" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="4"/>
       <c r="B1011" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C1011" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="4"/>
       <c r="B1012" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C1012" s="3">
-        <v>0.96527777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="4"/>
-      <c r="C1013" s="5"/>
+      <c r="B1013" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1013" s="3">
+        <v>0.96527777777777779</v>
+      </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1014" s="1">
+      <c r="A1014" s="4"/>
+      <c r="C1014" s="5"/>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1">
         <v>44011</v>
       </c>
-      <c r="B1014" s="2" t="s">
+      <c r="B1015" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1014" s="3">
+      <c r="C1015" s="3">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1015" s="4"/>
-      <c r="B1015" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1015" s="3">
-        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="4"/>
       <c r="B1016" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1016" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="4"/>
       <c r="B1017" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1017" s="3">
-        <v>0.375</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="4"/>
       <c r="B1018" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1018" s="3">
-        <v>0.39930555555555558</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="4"/>
       <c r="B1019" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1019" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.39930555555555558</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="4"/>
       <c r="B1020" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C1020" s="3">
-        <v>0.44097222222222221</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="4"/>
       <c r="B1021" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C1021" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="4"/>
       <c r="B1022" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C1022" s="3">
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="4"/>
       <c r="B1023" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C1023" s="3">
-        <v>0.51388888888888884</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="4"/>
       <c r="B1024" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1024" s="6">
-        <v>0.52083333333333337</v>
+        <v>38</v>
+      </c>
+      <c r="C1024" s="3">
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="4"/>
       <c r="B1025" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1025" s="3">
-        <v>0.54166666666666663</v>
+        <v>15</v>
+      </c>
+      <c r="C1025" s="6">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="4"/>
       <c r="B1026" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C1026" s="3">
-        <v>0.61805555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="4"/>
       <c r="B1027" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1027" s="3">
-        <v>0.64930555555555558</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="4"/>
       <c r="B1028" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1028" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.64930555555555558</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="4"/>
       <c r="B1029" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1029" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="4"/>
       <c r="B1030" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1030" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="4"/>
       <c r="B1031" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C1031" s="3">
-        <v>0.90277777777777779</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="4"/>
       <c r="B1032" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1032" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="4"/>
       <c r="B1033" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1033" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="4"/>
       <c r="B1034" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C1034" s="3">
-        <v>0.98611111111111116</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="4"/>
-      <c r="C1035" s="5"/>
+      <c r="B1035" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1035" s="3">
+        <v>0.98611111111111116</v>
+      </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1036" s="1">
+      <c r="A1036" s="4"/>
+      <c r="C1036" s="5"/>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1">
         <v>44012</v>
       </c>
-      <c r="B1036" s="2" t="s">
+      <c r="B1037" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1036" s="3">
+      <c r="C1037" s="3">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1037" s="4"/>
-      <c r="B1037" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1037" s="3">
-        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="4"/>
       <c r="B1038" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1038" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="4"/>
       <c r="B1039" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1039" s="3">
-        <v>0.375</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="4"/>
       <c r="B1040" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C1040" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" s="4"/>
       <c r="B1041" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1041" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" s="4"/>
       <c r="B1042" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C1042" s="3">
-        <v>0.43055555555555558</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" s="4"/>
       <c r="B1043" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1043" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" s="4"/>
       <c r="B1044" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C1044" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" s="4"/>
       <c r="B1045" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1045" s="3">
-        <v>0.61111111111111116</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" s="4"/>
       <c r="B1046" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C1046" s="3">
-        <v>0.63888888888888884</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" s="4"/>
       <c r="B1047" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C1047" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" s="4"/>
       <c r="B1048" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1048" s="6">
-        <v>0.72222222222222221</v>
+        <v>43</v>
+      </c>
+      <c r="C1048" s="3">
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" s="4"/>
       <c r="B1049" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1049" s="3">
-        <v>0.80555555555555558</v>
+        <v>11</v>
+      </c>
+      <c r="C1049" s="6">
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" s="4"/>
       <c r="B1050" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C1050" s="3">
-        <v>0.8125</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" s="4"/>
       <c r="B1051" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1051" s="3">
-        <v>0.82986111111111116</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" s="4"/>
       <c r="B1052" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1052" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" s="4"/>
       <c r="B1053" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C1053" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" s="4"/>
       <c r="B1054" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1054" s="3">
-        <v>0.94097222222222221</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" s="4"/>
       <c r="B1055" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C1055" s="3">
-        <v>0.99722222222222223</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" s="4"/>
-      <c r="C1056" s="5"/>
+      <c r="B1056" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1056" s="3">
+        <v>0.99722222222222223</v>
+      </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1057" s="1">
+      <c r="A1057" s="4"/>
+      <c r="C1057" s="5"/>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1">
         <v>44013</v>
       </c>
-      <c r="B1057" s="2" t="s">
+      <c r="B1058" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1057" s="3">
+      <c r="C1058" s="3">
         <v>0.34375</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1058" s="4"/>
-      <c r="B1058" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1058" s="3">
-        <v>0.35416666666787933</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" s="4"/>
       <c r="B1059" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1059" s="3">
-        <v>0.36805555555474712</v>
+        <v>0.35416666666787933</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" s="4"/>
       <c r="B1060" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C1060" s="3">
-        <v>0.55208333333333337</v>
+        <v>0.36805555555474712</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" s="4"/>
       <c r="B1061" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C1061" s="3">
-        <v>0.55902777777777779</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" s="4"/>
       <c r="B1062" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1062" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.55902777777777779</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" s="4"/>
       <c r="B1063" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1063" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" s="4"/>
       <c r="B1064" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1064" s="3">
-        <v>0.64583333333333337</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" s="4"/>
       <c r="B1065" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C1065" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" s="4"/>
       <c r="B1066" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C1066" s="3">
-        <v>0.8125</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" s="4"/>
       <c r="B1067" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C1067" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" s="4"/>
       <c r="B1068" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1068" s="6">
-        <v>0.93055555555555558</v>
+        <v>32</v>
+      </c>
+      <c r="C1068" s="3">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" s="4"/>
       <c r="B1069" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1069" s="3">
-        <v>0.97916666666666663</v>
+        <v>20</v>
+      </c>
+      <c r="C1069" s="6">
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" s="4"/>
       <c r="B1070" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C1070" s="3">
-        <v>0.98958333333333337</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" s="4"/>
-      <c r="C1071" s="5"/>
+      <c r="B1071" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1071" s="3">
+        <v>0.98958333333333337</v>
+      </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1072" s="1">
+      <c r="A1072" s="4"/>
+      <c r="C1072" s="5"/>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1">
         <v>44014</v>
       </c>
-      <c r="B1072" s="2" t="s">
+      <c r="B1073" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1072" s="3">
+      <c r="C1073" s="3">
         <v>0.34375</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1073" s="4"/>
-      <c r="B1073" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1073" s="3">
-        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" s="4"/>
       <c r="B1074" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1074" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" s="4"/>
       <c r="B1075" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1075" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.38194444444444442</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" s="4"/>
       <c r="B1076" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1076" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" s="4"/>
       <c r="B1077" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1077" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" s="4"/>
       <c r="B1078" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C1078" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" s="4"/>
       <c r="B1079" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1079" s="3">
-        <v>0.69791666666666663</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" s="4"/>
       <c r="B1080" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1080" s="3">
-        <v>0.75</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" s="4"/>
       <c r="B1081" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C1081" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" s="4"/>
       <c r="B1082" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1082" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" s="4"/>
       <c r="B1083" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1083" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" s="4"/>
       <c r="B1084" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C1084" s="3">
-        <v>0.89236111111111116</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" s="4"/>
       <c r="B1085" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1085" s="3">
-        <v>0.90625</v>
+        <v>0.89236111111111116</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" s="4"/>
       <c r="B1086" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1086" s="3">
-        <v>0.91319444444444442</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" s="4"/>
       <c r="B1087" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C1087" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.91319444444444442</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" s="4"/>
       <c r="B1088" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1088" s="3">
-        <v>0.98611111111111116</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" s="4"/>
-      <c r="C1089" s="5"/>
+      <c r="B1089" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1089" s="3">
+        <v>0.98611111111111116</v>
+      </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1090" s="1">
+      <c r="A1090" s="4"/>
+      <c r="C1090" s="5"/>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1">
         <v>44015</v>
       </c>
-      <c r="B1090" s="2" t="s">
+      <c r="B1091" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1090" s="3">
+      <c r="C1091" s="3">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1091" s="4"/>
-      <c r="B1091" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1091" s="3">
-        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" s="4"/>
       <c r="B1092" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1092" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" s="4"/>
       <c r="B1093" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1093" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" s="4"/>
       <c r="B1094" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1094" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" s="4"/>
       <c r="B1095" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C1095" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" s="4"/>
       <c r="B1096" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C1096" s="3">
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" s="4"/>
       <c r="B1097" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C1097" s="3">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" s="4"/>
       <c r="B1098" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1098" s="3">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" s="4"/>
       <c r="B1099" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1099" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" s="4"/>
       <c r="B1100" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1100" s="3">
-        <v>0.90972222222222221</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" s="4"/>
       <c r="B1101" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C1101" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" s="4"/>
-      <c r="C1102" s="5"/>
+      <c r="B1102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1102" s="3">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1103" s="1">
+      <c r="A1103" s="4"/>
+      <c r="C1103" s="5"/>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
         <v>44025</v>
       </c>
-      <c r="B1103" s="2" t="s">
+      <c r="B1104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1103" s="3">
+      <c r="C1104" s="3">
         <v>0.34375</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1104" s="4"/>
-      <c r="B1104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1104" s="3">
-        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" s="4"/>
       <c r="B1105" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C1105" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" s="4"/>
       <c r="B1106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1106" s="3">
-        <v>0.4513888888888889</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" s="4"/>
       <c r="B1107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1107" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1108" s="4"/>
+      <c r="B1108" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1107" s="3">
+      <c r="C1108" s="3">
         <v>0.47569444444444442</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1108" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1108" s="6">
-        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1109" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C1109" s="6">
-        <v>0.55555555555555558</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1110" s="6">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1111" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1110" s="6">
+      <c r="C1111" s="6">
         <v>0.57638888888888884</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1111" s="4"/>
-      <c r="B1111" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1111" s="3">
-        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" s="4"/>
       <c r="B1112" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C1112" s="3">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" s="4"/>
       <c r="B1113" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C1113" s="3">
-        <v>0.78819444444444442</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" s="4"/>
       <c r="B1114" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1114" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.78819444444444442</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" s="4"/>
       <c r="B1115" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C1115" s="3">
-        <v>0.8125</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" s="4"/>
       <c r="B1116" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1116" s="6">
-        <v>0.88888888888888884</v>
+        <v>49</v>
+      </c>
+      <c r="C1116" s="3">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" s="4"/>
       <c r="B1117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1117" s="3">
-        <v>0.90277777777777779</v>
+        <v>39</v>
+      </c>
+      <c r="C1117" s="6">
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" s="4"/>
       <c r="B1118" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1118" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" s="4"/>
       <c r="B1119" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C1119" s="3">
-        <v>0.94097222222222221</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" s="4"/>
       <c r="B1120" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C1120" s="3">
-        <v>0.96875</v>
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" s="4"/>
-      <c r="C1121" s="5"/>
+      <c r="B1121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1121" s="3">
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1122" s="1">
+      <c r="A1122" s="4"/>
+      <c r="C1122" s="5"/>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
         <v>43996</v>
       </c>
-      <c r="B1122" s="2" t="s">
+      <c r="B1123" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1122" s="3">
+      <c r="C1123" s="3">
         <v>0.32291666666666669</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1123" s="4"/>
-      <c r="B1123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1123" s="3">
-        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" s="4"/>
       <c r="B1124" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1124" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" s="4"/>
       <c r="B1125" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1125" s="3">
-        <v>0.3576388888888889</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" s="4"/>
       <c r="B1126" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C1126" s="3">
-        <v>0.40972222222222221</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" s="4"/>
       <c r="B1127" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1127" s="6">
-        <v>0.4513888888888889</v>
+        <v>49</v>
+      </c>
+      <c r="C1127" s="3">
+        <v>0.40972222222222221</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" s="4"/>
       <c r="B1128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1128" s="3">
-        <v>0.45833333333333331</v>
+        <v>7</v>
+      </c>
+      <c r="C1128" s="6">
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" s="4"/>
       <c r="B1129" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C1129" s="3">
-        <v>0.4861111111111111</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" s="4"/>
       <c r="B1130" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C1130" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" s="4"/>
       <c r="B1131" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C1131" s="3">
-        <v>0.53472222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" s="4"/>
       <c r="B1132" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C1132" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" s="4"/>
       <c r="B1133" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1133" s="6">
-        <v>0.55555555555555558</v>
+        <v>15</v>
+      </c>
+      <c r="C1133" s="3">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" s="4"/>
       <c r="B1134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1134" s="3">
-        <v>0.56944444444444442</v>
+        <v>50</v>
+      </c>
+      <c r="C1134" s="6">
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" s="4"/>
       <c r="B1135" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1135" s="3">
-        <v>0.59027777777777779</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" s="4"/>
       <c r="B1136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1136" s="3">
-        <v>0.73958333333333337</v>
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" s="4"/>
       <c r="B1137" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C1137" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" s="4"/>
       <c r="B1138" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C1138" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" s="4"/>
       <c r="B1139" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1139" s="3">
-        <v>0.81944444444444442</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" s="4"/>
       <c r="B1140" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C1140" s="3">
-        <v>0.875</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" s="4"/>
       <c r="B1141" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1141" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" s="4"/>
       <c r="B1142" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C1142" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" s="4"/>
       <c r="B1143" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C1143" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" s="4"/>
-      <c r="C1144" s="5"/>
+      <c r="B1144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1144" s="3">
+        <v>0.95833333333333337</v>
+      </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1145" s="1">
+      <c r="A1145" s="4"/>
+      <c r="C1145" s="5"/>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1">
         <v>44027</v>
       </c>
-      <c r="B1145" s="2" t="s">
+      <c r="B1146" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1145" s="3">
+      <c r="C1146" s="3">
         <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1146" s="4"/>
-      <c r="B1146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1146" s="3">
-        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" s="4"/>
       <c r="B1147" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1147" s="3">
-        <v>0.32291666666666669</v>
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" s="4"/>
       <c r="B1148" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C1148" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" s="4"/>
       <c r="B1149" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C1149" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" s="4"/>
       <c r="B1150" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C1150" s="3">
-        <v>0.69444444444444442</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" s="4"/>
       <c r="B1151" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C1151" s="3">
-        <v>0.75694444444444442</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" s="4"/>
       <c r="B1152" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C1152" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" s="4"/>
       <c r="B1153" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1153" s="3">
-        <v>0.78472222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" s="4"/>
       <c r="B1154" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1154" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" s="4"/>
       <c r="B1155" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C1155" s="3">
-        <v>0.79861111111111116</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" s="4"/>
       <c r="B1156" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C1156" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" s="4"/>
       <c r="B1157" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C1157" s="3">
-        <v>0.99930555555555556</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" s="4"/>
-      <c r="C1158" s="5"/>
+      <c r="B1158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1158" s="3">
+        <v>0.99930555555555556</v>
+      </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1159" s="1">
+      <c r="A1159" s="4"/>
+      <c r="C1159" s="5"/>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1">
         <v>44028</v>
       </c>
-      <c r="B1159" s="2" t="s">
+      <c r="B1160" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1159" s="3">
+      <c r="C1160" s="3">
         <v>0.34375</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1160" s="4"/>
-      <c r="B1160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1160" s="3">
-        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" s="4"/>
       <c r="B1161" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1161" s="3">
-        <v>0.36458333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" s="4"/>
       <c r="B1162" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C1162" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" s="4"/>
       <c r="B1163" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C1163" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" s="4"/>
       <c r="B1164" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C1164" s="3">
-        <v>0.46875</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" s="4"/>
       <c r="B1165" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C1165" s="3">
-        <v>0.57638888888888884</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" s="4"/>
       <c r="B1166" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C1166" s="3">
-        <v>0.60069444444444442</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" s="4"/>
       <c r="B1167" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1167" s="3">
-        <v>0.61805555555555558</v>
+        <v>0.60069444444444442</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" s="4"/>
       <c r="B1168" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1168" s="3">
-        <v>0.68055555555555558</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" s="4"/>
       <c r="B1169" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1169" s="3">
-        <v>0.75694444444444442</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" s="4"/>
       <c r="B1170" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C1170" s="3">
-        <v>0.77777777777777779</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" s="4"/>
       <c r="B1171" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1171" s="3">
-        <v>0.8125</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" s="4"/>
       <c r="B1172" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C1172" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" s="4"/>
       <c r="B1173" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C1173" s="3">
-        <v>0.86458333333333337</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" s="4"/>
       <c r="B1174" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1174" s="3">
-        <v>0.92708333333333337</v>
+        <v>0.86458333333333337</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" s="4"/>
       <c r="B1175" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1175" s="3">
-        <v>0.94097222222222221</v>
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" s="4"/>
       <c r="B1176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1176" s="6">
-        <v>0.98263888888888884</v>
+        <v>29</v>
+      </c>
+      <c r="C1176" s="3">
+        <v>0.94097222222222221</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" s="4"/>
-      <c r="C1177" s="5"/>
+      <c r="B1177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1177" s="6">
+        <v>0.98263888888888884</v>
+      </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1178" s="1">
+      <c r="A1178" s="4"/>
+      <c r="C1178" s="5"/>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1">
         <v>44029</v>
       </c>
-      <c r="B1178" s="2" t="s">
+      <c r="B1179" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1178" s="3">
+      <c r="C1179" s="3">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1179" s="4"/>
-      <c r="B1179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1179" s="3">
-        <v>0.34375</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" s="4"/>
       <c r="B1180" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1180" s="3">
-        <v>0.36805555555555558</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" s="4"/>
       <c r="B1181" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1181" s="3">
-        <v>0.375</v>
+        <v>0.36805555555555558</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" s="4"/>
       <c r="B1182" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C1182" s="3">
-        <v>0.44791666666666669</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" s="4"/>
       <c r="B1183" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C1183" s="3">
-        <v>0.49305555555555558</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" s="4"/>
       <c r="B1184" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1184" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" s="4"/>
       <c r="B1185" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C1185" s="3">
-        <v>0.60416666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" s="4"/>
       <c r="B1186" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C1186" s="3">
-        <v>0.63194444444444442</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" s="4"/>
       <c r="B1187" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C1187" s="3">
-        <v>0.71527777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" s="4"/>
       <c r="B1188" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C1188" s="3">
-        <v>0.72222222222222221</v>
+        <v>0.71527777777777779</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" s="4"/>
       <c r="B1189" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C1189" s="3">
-        <v>0.74652777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" s="4"/>
       <c r="B1190" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C1190" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.74652777777777779</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" s="4"/>
       <c r="B1191" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1191" s="3">
-        <v>0.82986111111111116</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" s="4"/>
       <c r="B1192" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1192" s="3">
-        <v>0.86111111111111116</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" s="4"/>
       <c r="B1193" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C1193" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" s="4"/>
       <c r="B1194" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1194" s="3">
-        <v>0.93055555555555558</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" s="4"/>
       <c r="B1195" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C1195" s="3">
-        <v>0.96527777777777779</v>
+        <v>0.93055555555555558</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" s="4"/>
-      <c r="C1196" s="5"/>
+      <c r="B1196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1196" s="3">
+        <v>0.96527777777777779</v>
+      </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1197" s="1">
+      <c r="A1197" s="4"/>
+      <c r="C1197" s="5"/>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1">
         <v>44030</v>
       </c>
-      <c r="B1197" s="2" t="s">
+      <c r="B1198" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1197" s="3">
+      <c r="C1198" s="3">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1198" s="4"/>
-      <c r="B1198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1198" s="3">
-        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" s="4"/>
       <c r="B1199" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1199" s="3">
-        <v>0.3888888888888889</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" s="4"/>
       <c r="B1200" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1200" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" s="4"/>
       <c r="B1201" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1201" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" s="4"/>
       <c r="B1202" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1202" s="3">
-        <v>0.53125</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" s="4"/>
       <c r="B1203" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1203" s="3">
-        <v>0.56944444444444442</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" s="4"/>
       <c r="B1204" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1204" s="3">
-        <v>0.57986111111111116</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" s="4"/>
-      <c r="B1205" s="8" t="s">
-        <v>21</v>
+      <c r="B1205" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C1205" s="3">
-        <v>0.67361111111111116</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" s="4"/>
       <c r="B1206" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1206" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.67361111111111116</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" s="4"/>
       <c r="B1207" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1207" s="3">
-        <v>0.80555555555555558</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" s="4"/>
-      <c r="B1208" s="8" t="s">
-        <v>21</v>
+      <c r="B1208" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C1208" s="3">
-        <v>0.89583333333333337</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" s="4"/>
       <c r="B1209" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1209" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" s="4"/>
       <c r="B1210" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1210" s="3">
-        <v>0.96527777777777779</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" s="4"/>
-      <c r="C1211" s="5"/>
+      <c r="B1211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1211" s="3">
+        <v>0.96527777777777779</v>
+      </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1212" s="1">
+      <c r="A1212" s="4"/>
+      <c r="C1212" s="5"/>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1">
         <v>44031</v>
       </c>
-      <c r="B1212" s="2" t="s">
+      <c r="B1213" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1212" s="3">
+      <c r="C1213" s="3">
         <v>0.34375</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1213" s="4"/>
-      <c r="B1213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1213" s="3">
-        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" s="4"/>
       <c r="B1214" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1214" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" s="4"/>
-      <c r="B1215" s="8" t="s">
-        <v>21</v>
+      <c r="B1215" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C1215" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" s="4"/>
       <c r="B1216" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1216" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" s="4"/>
       <c r="B1217" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1217" s="3">
-        <v>0.89930555555555558</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" s="4"/>
-      <c r="C1218" s="5"/>
+      <c r="B1218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1218" s="3">
+        <v>0.89930555555555558</v>
+      </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1219" s="1">
+      <c r="A1219" s="4"/>
+      <c r="C1219" s="5"/>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1">
         <v>44002</v>
       </c>
-      <c r="B1219" s="2" t="s">
+      <c r="B1220" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1219" s="3">
+      <c r="C1220" s="3">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1220" s="4"/>
-      <c r="B1220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1220" s="3">
-        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" s="4"/>
       <c r="B1221" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1221" s="3">
-        <v>0.35416666666666669</v>
+        <v>0.26041666666666669</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" s="4"/>
       <c r="B1222" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C1222" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" s="4"/>
-      <c r="B1223" s="8" t="s">
-        <v>21</v>
+      <c r="B1223" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C1223" s="3">
-        <v>0.37847222222222221</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" s="4"/>
       <c r="B1224" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1224" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.37847222222222221</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" s="4"/>
       <c r="B1225" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1225" s="6">
-        <v>0.44791666666666669</v>
+        <v>17</v>
+      </c>
+      <c r="C1225" s="3">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" s="4"/>
       <c r="B1226" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1226" s="3">
-        <v>0.4548611111111111</v>
+        <v>29</v>
+      </c>
+      <c r="C1226" s="6">
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" s="4"/>
-      <c r="B1227" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1227" s="6">
-        <v>0.49305555555555558</v>
+      <c r="B1227" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1227" s="3">
+        <v>0.4548611111111111</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" s="4"/>
       <c r="B1228" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1228" s="3">
-        <v>0.51388888888888884</v>
+        <v>21</v>
+      </c>
+      <c r="C1228" s="6">
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" s="4"/>
       <c r="B1229" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1229" s="3">
-        <v>0.56597222222222221</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" s="4"/>
       <c r="B1230" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C1230" s="3">
-        <v>0.57291666666666663</v>
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" s="4"/>
-      <c r="B1231" s="8" t="s">
-        <v>21</v>
+      <c r="B1231" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C1231" s="3">
-        <v>0.61805555555555558</v>
+        <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" s="4"/>
       <c r="B1232" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1232" s="3">
-        <v>0.65625</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" s="4"/>
       <c r="B1233" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C1233" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" s="4"/>
       <c r="B1234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1234" s="6">
-        <v>0.68055555555555558</v>
+        <v>12</v>
+      </c>
+      <c r="C1234" s="3">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" s="4"/>
       <c r="B1235" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1235" s="3">
-        <v>0.6875</v>
+        <v>11</v>
+      </c>
+      <c r="C1235" s="6">
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" s="4"/>
       <c r="B1236" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C1236" s="3">
-        <v>0.69444444444444442</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" s="4"/>
-      <c r="B1237" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1237" s="6">
-        <v>0.72222222222222221</v>
+      <c r="B1237" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1237" s="3">
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" s="4"/>
       <c r="B1238" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1238" s="3">
-        <v>0.75</v>
+        <v>21</v>
+      </c>
+      <c r="C1238" s="6">
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" s="4"/>
-      <c r="B1239" s="8" t="s">
-        <v>21</v>
+      <c r="B1239" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C1239" s="3">
-        <v>0.79513888888888884</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" s="4"/>
       <c r="B1240" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1240" s="3">
-        <v>0.80208333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" s="4"/>
-      <c r="B1241" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1241" s="7">
-        <v>0.81944444444444442</v>
+      <c r="B1241" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1241" s="3">
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" s="4"/>
       <c r="B1242" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1242" s="7">
-        <v>0.83333333333333337</v>
+        <v>21</v>
+      </c>
+      <c r="C1242" s="3">
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" s="4"/>
-      <c r="B1243" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1243" s="7">
-        <v>0.84722222222222221</v>
+      <c r="B1243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1243" s="3">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" s="4"/>
       <c r="B1244" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1244" s="7">
-        <v>0.875</v>
+        <v>21</v>
+      </c>
+      <c r="C1244" s="3">
+        <v>0.84722222222222221</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" s="4"/>
       <c r="B1245" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1245" s="7">
-        <v>0.91666666666666663</v>
+        <v>12</v>
+      </c>
+      <c r="C1245" s="3">
+        <v>0.875</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" s="4"/>
       <c r="B1246" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1246" s="7">
-        <v>0.93055555555555558</v>
+        <v>39</v>
+      </c>
+      <c r="C1246" s="3">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" s="4"/>
-      <c r="C1247" s="5"/>
+      <c r="B1247" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1247" s="3">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1248" s="4">
+      <c r="A1248" s="4"/>
+      <c r="C1248" s="5"/>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1">
         <v>44033</v>
       </c>
-      <c r="B1248" s="8" t="s">
+      <c r="B1249" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1248" s="5">
+      <c r="C1249" s="3">
         <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1249" s="4"/>
-      <c r="B1249" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1249" s="5">
-        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" s="4"/>
-      <c r="B1250" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1250" s="5">
-        <v>0.375</v>
+      <c r="B1250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1250" s="3">
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" s="4"/>
-      <c r="B1251" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1251" s="5">
-        <v>0.4375</v>
+      <c r="B1251" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1251" s="3">
+        <v>0.375</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" s="4"/>
-      <c r="B1252" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1252" s="5">
-        <v>0.46875</v>
+      <c r="B1252" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1252" s="3">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" s="4"/>
-      <c r="B1253" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1253" s="5">
-        <v>0.55208333333333337</v>
+      <c r="B1253" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1253" s="3">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" s="4"/>
-      <c r="B1254" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1254" s="5">
-        <v>0.56944444444444442</v>
+      <c r="B1254" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1254" s="3">
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" s="4"/>
-      <c r="B1255" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1255" s="5">
-        <v>0.58680555555555558</v>
+      <c r="B1255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1255" s="3">
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" s="4"/>
-      <c r="B1256" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1256" s="5">
-        <v>0.59375</v>
+      <c r="B1256" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1256" s="3">
+        <v>0.58680555555555558</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" s="4"/>
-      <c r="B1257" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1257" s="5">
-        <v>0.60763888888888884</v>
+      <c r="B1257" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1257" s="3">
+        <v>0.59375</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" s="4"/>
-      <c r="B1258" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1258" s="5">
-        <v>0.63194444444444442</v>
+      <c r="B1258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1258" s="3">
+        <v>0.60763888888888884</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" s="4"/>
-      <c r="B1259" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1259" s="5">
-        <v>0.6875</v>
+      <c r="B1259" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1259" s="3">
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" s="4"/>
-      <c r="B1260" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1260" s="5">
-        <v>0.69444444444444442</v>
+      <c r="B1260" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1260" s="3">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" s="4"/>
-      <c r="B1261" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1261" s="5">
-        <v>0.70833333333333337</v>
+      <c r="B1261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1261" s="3">
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" s="4"/>
-      <c r="B1262" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1262" s="5">
-        <v>0.85763888888888884</v>
+      <c r="B1262" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1262" s="3">
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" s="4"/>
-      <c r="B1263" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1263" s="5">
-        <v>0.91666666666666663</v>
+      <c r="B1263" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1263" s="3">
+        <v>0.85763888888888884</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" s="4"/>
-      <c r="B1264" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1264" s="5">
-        <v>0.93402777777777779</v>
+      <c r="B1264" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1264" s="3">
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" s="4"/>
-      <c r="B1265" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1265" s="5">
-        <v>0.94791666666666663</v>
+      <c r="B1265" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1265" s="3">
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" s="4"/>
-      <c r="B1266" s="9"/>
-      <c r="C1266" s="5"/>
+      <c r="B1266" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1266" s="3">
+        <v>0.94791666666666663</v>
+      </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1267" s="4">
+      <c r="A1267" s="4"/>
+      <c r="C1267" s="5"/>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1">
         <v>44034</v>
       </c>
-      <c r="B1267" s="8" t="s">
+      <c r="B1268" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1267" s="5">
+      <c r="C1268" s="3">
         <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1268" s="4"/>
-      <c r="B1268" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1268" s="5">
-        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" s="4"/>
-      <c r="B1269" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1269" s="5">
-        <v>0.35416666666666669</v>
+      <c r="B1269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1269" s="3">
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" s="4"/>
-      <c r="B1270" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1270" s="5">
-        <v>0.48958333333333331</v>
+      <c r="B1270" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1270" s="3">
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" s="4"/>
-      <c r="B1271" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1271" s="5">
-        <v>0.51041666666666663</v>
+      <c r="B1271" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1271" s="3">
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" s="4"/>
-      <c r="B1272" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1272" s="5">
-        <v>0.52083333333333337</v>
+      <c r="B1272" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1272" s="3">
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" s="4"/>
-      <c r="B1273" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1273" s="5">
-        <v>0.54861111111111116</v>
+      <c r="B1273" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1273" s="3">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" s="4"/>
-      <c r="B1274" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1274" s="5">
-        <v>0.56597222222222221</v>
+      <c r="B1274" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1274" s="3">
+        <v>0.54861111111111116</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" s="4"/>
-      <c r="B1275" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1275" s="5">
-        <v>0.65625</v>
+      <c r="B1275" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1275" s="3">
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" s="4"/>
-      <c r="B1276" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1276" s="5">
-        <v>0.67708333333333337</v>
+      <c r="B1276" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1276" s="3">
+        <v>0.65625</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" s="4"/>
-      <c r="B1277" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1277" s="5">
-        <v>0.77777777777777779</v>
+      <c r="B1277" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1277" s="3">
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" s="4"/>
-      <c r="B1278" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1278" s="5">
-        <v>0.8125</v>
+      <c r="B1278" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1278" s="3">
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" s="4"/>
-      <c r="B1279" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1279" s="10">
-        <v>0.82986111111111116</v>
+      <c r="B1279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1279" s="3">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" s="4"/>
-      <c r="B1280" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1280" s="11">
-        <v>0.9375</v>
+      <c r="B1280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1280" s="7">
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" s="4"/>
-      <c r="B1281" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1281" s="11">
-        <v>0.94791666666666663</v>
+      <c r="B1281" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1281" s="8">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" s="4"/>
-      <c r="B1282" s="9"/>
-      <c r="C1282" s="5"/>
+      <c r="B1282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1282" s="8">
+        <v>0.94791666666666663</v>
+      </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1283" s="12">
+      <c r="A1283" s="4"/>
+      <c r="C1283" s="5"/>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1284" s="9">
         <v>44035</v>
       </c>
-      <c r="B1283" s="8" t="s">
+      <c r="B1284" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1283" s="11">
+      <c r="C1284" s="8">
         <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1284" s="4"/>
-      <c r="B1284" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1284" s="11">
-        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" s="4"/>
-      <c r="B1285" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1285" s="11">
-        <v>0.375</v>
+      <c r="B1285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1285" s="8">
+        <v>0.30208333333333331</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" s="4"/>
-      <c r="B1286" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1286" s="11">
-        <v>0.47569444444444442</v>
+      <c r="B1286" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1286" s="8">
+        <v>0.375</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" s="4"/>
-      <c r="B1287" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1287" s="11">
-        <v>0.49305555555555558</v>
+      <c r="B1287" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1287" s="8">
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" s="4"/>
-      <c r="B1288" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1288" s="11">
-        <v>0.50694444444444442</v>
+      <c r="B1288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1288" s="8">
+        <v>0.49305555555555558</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" s="4"/>
-      <c r="B1289" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1289" s="11">
-        <v>0.53472222222222221</v>
+      <c r="B1289" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1289" s="8">
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" s="4"/>
-      <c r="B1290" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1290" s="11">
-        <v>0.61111111111111116</v>
+      <c r="B1290" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1290" s="8">
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" s="4"/>
-      <c r="B1291" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1291" s="11">
-        <v>0.75</v>
+      <c r="B1291" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1291" s="8">
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" s="4"/>
-      <c r="B1292" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1292" s="11">
-        <v>0.78472222222222221</v>
+      <c r="B1292" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1292" s="8">
+        <v>0.75</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" s="4"/>
-      <c r="B1293" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1293" s="11">
-        <v>0.8125</v>
+      <c r="B1293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1293" s="8">
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" s="4"/>
-      <c r="B1294" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1294" s="11">
-        <v>0.82291666666666663</v>
+      <c r="B1294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1294" s="8">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" s="4"/>
-      <c r="B1295" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1295" s="11">
-        <v>0.85416666666666663</v>
+      <c r="B1295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1295" s="8">
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" s="4"/>
-      <c r="B1296" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1296" s="11">
-        <v>0.90972222222222221</v>
+      <c r="B1296" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1296" s="8">
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" s="4"/>
-      <c r="B1297" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1297" s="11">
-        <v>0.92708333333333337</v>
+      <c r="B1297" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1297" s="8">
+        <v>0.90972222222222221</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" s="4"/>
-      <c r="B1298" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1298" s="11">
-        <v>0.94791666666666663</v>
+      <c r="B1298" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1298" s="8">
+        <v>0.92708333333333337</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" s="4"/>
-      <c r="B1299" s="9"/>
-      <c r="C1299" s="5"/>
+      <c r="B1299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1299" s="8">
+        <v>0.94791666666666663</v>
+      </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1300" s="12">
+      <c r="A1300" s="4"/>
+      <c r="C1300" s="5"/>
+    </row>
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1301" s="9">
         <v>44036</v>
       </c>
-      <c r="B1300" s="8" t="s">
+      <c r="B1301" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1300" s="11">
+      <c r="C1301" s="8">
         <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1301" s="4"/>
-      <c r="B1301" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1301" s="11">
-        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" s="4"/>
-      <c r="B1302" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1302" s="11">
-        <v>0.36805555555555558</v>
+      <c r="B1302" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1302" s="8">
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" s="4"/>
-      <c r="C1303" s="5"/>
+      <c r="B1303" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1303" s="8">
+        <v>0.36805555555555558</v>
+      </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" s="4"/>
-      <c r="C1304" s="5"/>
+      <c r="B1304" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1304" s="8">
+        <v>0.55902777777777779</v>
+      </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" s="4"/>
-      <c r="C1305" s="5"/>
+      <c r="B1305" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1305" s="8">
+        <v>0.57986111111111116</v>
+      </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" s="4"/>
-      <c r="C1306" s="5"/>
+      <c r="B1306" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1306" s="8">
+        <v>0.59722222222222221</v>
+      </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" s="4"/>
-      <c r="C1307" s="5"/>
+      <c r="B1307" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1307" s="8">
+        <v>0.65277777777777779</v>
+      </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" s="4"/>
-      <c r="C1308" s="5"/>
+      <c r="B1308" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1308" s="8">
+        <v>0.72916666666666663</v>
+      </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" s="4"/>
-      <c r="C1309" s="5"/>
+      <c r="B1309" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1309" s="8">
+        <v>0.76041666666666663</v>
+      </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" s="4"/>
-      <c r="C1310" s="5"/>
+      <c r="B1310" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1310" s="8">
+        <v>0.82986111111111116</v>
+      </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" s="4"/>
-      <c r="C1311" s="5"/>
+      <c r="B1311" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1311" s="8">
+        <v>0.84027777777777779</v>
+      </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" s="4"/>
-      <c r="C1312" s="5"/>
+      <c r="B1312" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1312" s="8">
+        <v>0.85416666666666663</v>
+      </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" s="4"/>
-      <c r="C1313" s="5"/>
+      <c r="B1313" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1313" s="8">
+        <v>0.90277777777777779</v>
+      </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" s="4"/>
-      <c r="C1314" s="5"/>
+      <c r="B1314" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1314" s="8">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" s="4"/>
-      <c r="C1315" s="5"/>
+      <c r="B1315" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1315" s="8">
+        <v>0.99652777777777779</v>
+      </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" s="4"/>
       <c r="C1316" s="5"/>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1317" s="4"/>
-      <c r="C1317" s="5"/>
+      <c r="A1317" s="9">
+        <v>44038</v>
+      </c>
+      <c r="B1317" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1317" s="8">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" s="4"/>
-      <c r="C1318" s="5"/>
+      <c r="B1318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1318" s="8">
+        <v>0.32291666666666669</v>
+      </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" s="4"/>
-      <c r="C1319" s="5"/>
+      <c r="B1319" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1319" s="8">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" s="4"/>
-      <c r="C1320" s="5"/>
+      <c r="B1320" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1320" s="8">
+        <v>0.40277777777777779</v>
+      </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" s="4"/>
@@ -12477,6 +12550,10 @@
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" s="4"/>
       <c r="C1345" s="5"/>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1346" s="4"/>
+      <c r="C1346" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/database/seeders/spreadsheet/0.spreadsheet.xlsx
+++ b/database/seeders/spreadsheet/0.spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merlin\Desktop\projects\acitivity-analyzer\database\seeders\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merlin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE5A50C-3B7F-4FEB-BEB6-E7F5A2D89D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9300180C-652A-4C8C-99DC-A9D811E3DA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -183,9 +183,6 @@
   <si>
     <t>Codewars</t>
   </si>
-  <si>
-    <t>Früshtück</t>
-  </si>
 </sst>
 </file>
 
@@ -193,7 +190,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="165" formatCode="hh&quot;:&quot;mm"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -239,10 +236,10 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12596,8 +12593,8 @@
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" s="9"/>
-      <c r="B1336" s="1" t="s">
-        <v>54</v>
+      <c r="B1336" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C1336" s="6">
         <v>0.3125</v>
